--- a/Documents/Agile Project Management -Backlog.xlsx
+++ b/Documents/Agile Project Management -Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Cava\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="276" yWindow="516" windowWidth="18852" windowHeight="10680"/>
+    <workbookView xWindow="276" yWindow="516" windowWidth="16980" windowHeight="5424"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -66,22 +66,10 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Implementation Task 1</t>
-  </si>
-  <si>
     <t>Admin/User docs</t>
   </si>
   <si>
     <t>Demo</t>
-  </si>
-  <si>
-    <t>Implementation Task 2</t>
-  </si>
-  <si>
-    <t>Implementation Task 3</t>
-  </si>
-  <si>
-    <t>Implementation Task 4</t>
   </si>
   <si>
     <t>Testing 3</t>
@@ -112,6 +100,33 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>AppStart1</t>
+  </si>
+  <si>
+    <t>AppStart2</t>
+  </si>
+  <si>
+    <t>AppStart3</t>
+  </si>
+  <si>
+    <t>AppStart4</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Application starts with user/ADMIN previous settings</t>
+  </si>
+  <si>
+    <t>Application starts with user/ADMIN Login screen</t>
+  </si>
+  <si>
+    <t>Application allows user to ineract with embedded gui</t>
+  </si>
+  <si>
+    <t>Application saves user/Admin settings</t>
   </si>
 </sst>
 </file>
@@ -903,61 +918,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-13</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-17</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-21</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,55 +984,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>59</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>7</c:v>
@@ -1037,11 +1052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1908591472"/>
-        <c:axId val="-1908592016"/>
+        <c:axId val="-980522784"/>
+        <c:axId val="-980521696"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1908591472"/>
+        <c:axId val="-980522784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1085,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1908592016"/>
+        <c:crossAx val="-980521696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1093,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1908592016"/>
+        <c:axId val="-980521696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1908591472"/>
+        <c:crossAx val="-980522784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1468,7 +1483,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB41" sqref="AB41"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1493,28 +1508,28 @@
         <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="J1" s="4">
         <v>1</v>
@@ -1571,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="45"/>
     </row>
@@ -1826,21 +1841,27 @@
       <c r="AA7" s="22"/>
       <c r="AB7" s="46"/>
     </row>
-    <row r="8" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>1</v>
+      </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="1"/>
@@ -1852,33 +1873,41 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>1</v>
-      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
+      <c r="T8" s="21">
+        <v>2</v>
+      </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="W8" s="21">
+        <v>1</v>
+      </c>
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
+      <c r="Z8" s="21">
+        <v>2</v>
+      </c>
       <c r="AA8" s="22"/>
       <c r="AB8" s="46"/>
     </row>
-    <row r="9" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
@@ -1914,21 +1943,27 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="46"/>
     </row>
-    <row r="10" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="1"/>
@@ -1947,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="T10" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
@@ -1958,21 +1993,27 @@
       <c r="AA10" s="22"/>
       <c r="AB10" s="46"/>
     </row>
-    <row r="11" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="1"/>
@@ -1995,9 +2036,13 @@
         <v>1</v>
       </c>
       <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
+      <c r="W11" s="21">
+        <v>4</v>
+      </c>
       <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
+      <c r="Y11" s="21">
+        <v>1</v>
+      </c>
       <c r="Z11" s="21"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="46"/>
@@ -2012,11 +2057,11 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="1"/>
@@ -2031,11 +2076,11 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="S12" s="21">
+        <v>2</v>
+      </c>
       <c r="T12" s="21"/>
-      <c r="U12" s="21">
-        <v>4</v>
-      </c>
+      <c r="U12" s="21"/>
       <c r="V12" s="21">
         <v>1</v>
       </c>
@@ -2056,7 +2101,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="15">
         <f t="shared" si="0"/>
@@ -2094,15 +2139,15 @@
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="1"/>
@@ -2121,14 +2166,12 @@
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
-      <c r="W14" s="21">
-        <v>3</v>
-      </c>
-      <c r="X14" s="21">
-        <v>3</v>
-      </c>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
+      <c r="Z14" s="21">
+        <v>2</v>
+      </c>
       <c r="AA14" s="22"/>
       <c r="AB14" s="46"/>
     </row>
@@ -2138,15 +2181,15 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H15" s="15">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
@@ -2165,9 +2208,7 @@
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
-      <c r="W15" s="21">
-        <v>2</v>
-      </c>
+      <c r="W15" s="21"/>
       <c r="X15" s="21">
         <v>1</v>
       </c>
@@ -2186,7 +2227,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="13">
@@ -2232,7 +2273,7 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="13">
@@ -2855,11 +2896,11 @@
       <c r="F34" s="30"/>
       <c r="G34" s="31">
         <f>SUM(G3:G33)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="32">
         <f>SUM(H3:H33)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I34" s="32">
         <f>SUM(I3:I33)</f>
@@ -2891,11 +2932,11 @@
       </c>
       <c r="P34" s="33">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="33">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" s="33">
         <f t="shared" si="2"/>
@@ -2903,15 +2944,15 @@
       </c>
       <c r="S34" s="33">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T34" s="33">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U34" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" s="33">
         <f t="shared" si="2"/>
@@ -2923,15 +2964,15 @@
       </c>
       <c r="X34" s="33">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="33">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z34" s="33">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA34" s="33">
         <f t="shared" si="2"/>
@@ -2949,7 +2990,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="37">
         <f>G34-SUM(J35:AA35)</f>
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
@@ -3019,79 +3060,79 @@
       </c>
       <c r="I36" s="42">
         <f>G34</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J36" s="44">
         <f t="shared" ref="J36:AA36" si="3">I36-J35</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K36" s="44">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L36" s="44">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M36" s="44">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N36" s="44">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O36" s="44">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P36" s="44">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q36" s="44">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R36" s="44">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S36" s="44">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T36" s="44">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U36" s="44">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V36" s="44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W36" s="44">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="X36" s="44">
         <f t="shared" si="3"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="Y36" s="44">
         <f t="shared" si="3"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="Z36" s="44">
         <f>Y36-Z35</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="AA36" s="44">
         <f t="shared" si="3"/>
-        <v>-21</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,71 +3146,71 @@
       </c>
       <c r="I37" s="42">
         <f>H34</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J37" s="42">
         <f>$H$34-SUM(J$3:J$33)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37" s="42">
         <f t="shared" ref="K37:AA37" si="4">J37-SUM(K3:K33)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L37" s="42">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M37" s="42">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N37" s="42">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O37" s="42">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P37" s="42">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q37" s="42">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R37" s="42">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S37" s="42">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T37" s="42">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U37" s="42">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="V37" s="42">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W37" s="42">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X37" s="42">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y37" s="42">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z37" s="42">
         <f t="shared" si="4"/>

--- a/Documents/Agile Project Management -Backlog.xlsx
+++ b/Documents/Agile Project Management -Backlog.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Cava\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="276" yWindow="516" windowWidth="16980" windowHeight="5424"/>
+    <workbookView xWindow="270" yWindow="510" windowWidth="16980" windowHeight="5430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -127,6 +122,18 @@
   </si>
   <si>
     <t>Application saves user/Admin settings</t>
+  </si>
+  <si>
+    <t>Design of whole software</t>
+  </si>
+  <si>
+    <t>Design of UI</t>
+  </si>
+  <si>
+    <t>Help documentations</t>
+  </si>
+  <si>
+    <t>Delete weeks to 10-12</t>
   </si>
 </sst>
 </file>
@@ -1052,11 +1059,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-980522784"/>
-        <c:axId val="-980521696"/>
+        <c:axId val="103122048"/>
+        <c:axId val="103123968"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-980522784"/>
+        <c:axId val="103122048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1092,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-980521696"/>
+        <c:crossAx val="103123968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1093,7 +1100,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-980521696"/>
+        <c:axId val="103123968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-980522784"/>
+        <c:crossAx val="103122048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1233,7 +1240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1268,7 +1275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1480,30 +1487,30 @@
   <dimension ref="A1:AC100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="4" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="11" customWidth="1"/>
-    <col min="11" max="27" width="4.5546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="11" customWidth="1"/>
+    <col min="11" max="27" width="4.5703125" style="11" customWidth="1"/>
     <col min="28" max="28" width="34" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="17.109375" style="11"/>
+    <col min="29" max="16384" width="17.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1590,7 +1597,7 @@
       </c>
       <c r="AC1" s="45"/>
     </row>
-    <row r="2" spans="1:29" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1619,7 +1626,7 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1663,9 +1670,11 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="19"/>
-      <c r="AB3" s="47"/>
-    </row>
-    <row r="4" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AB3" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1709,7 +1718,7 @@
       <c r="AA4" s="22"/>
       <c r="AB4" s="46"/>
     </row>
-    <row r="5" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1755,7 +1764,7 @@
       <c r="AA5" s="22"/>
       <c r="AB5" s="46"/>
     </row>
-    <row r="6" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1763,7 +1772,9 @@
       <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="13">
         <v>2</v>
       </c>
@@ -1797,7 +1808,7 @@
       <c r="AA6" s="22"/>
       <c r="AB6" s="46"/>
     </row>
-    <row r="7" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1805,7 +1816,9 @@
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="13">
         <v>4</v>
       </c>
@@ -1841,7 +1854,7 @@
       <c r="AA7" s="22"/>
       <c r="AB7" s="46"/>
     </row>
-    <row r="8" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1893,7 +1906,7 @@
       <c r="AA8" s="22"/>
       <c r="AB8" s="46"/>
     </row>
-    <row r="9" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -1943,7 +1956,7 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="46"/>
     </row>
-    <row r="10" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -1993,7 +2006,7 @@
       <c r="AA10" s="22"/>
       <c r="AB10" s="46"/>
     </row>
-    <row r="11" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>4</v>
       </c>
@@ -2047,7 +2060,7 @@
       <c r="AA11" s="22"/>
       <c r="AB11" s="46"/>
     </row>
-    <row r="12" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2091,7 +2104,7 @@
       <c r="AA12" s="22"/>
       <c r="AB12" s="46"/>
     </row>
-    <row r="13" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -2133,7 +2146,7 @@
       <c r="AA13" s="22"/>
       <c r="AB13" s="46"/>
     </row>
-    <row r="14" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2175,7 +2188,7 @@
       <c r="AA14" s="22"/>
       <c r="AB14" s="46"/>
     </row>
-    <row r="15" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2221,7 +2234,7 @@
       <c r="AA15" s="22"/>
       <c r="AB15" s="46"/>
     </row>
-    <row r="16" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2229,7 +2242,9 @@
       <c r="E16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="13">
         <v>8</v>
       </c>
@@ -2267,7 +2282,7 @@
       </c>
       <c r="AB16" s="46"/>
     </row>
-    <row r="17" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2309,7 +2324,7 @@
       </c>
       <c r="AB17" s="46"/>
     </row>
-    <row r="18" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2345,7 +2360,7 @@
       <c r="AA18" s="22"/>
       <c r="AB18" s="46"/>
     </row>
-    <row r="19" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2381,7 +2396,7 @@
       <c r="AA19" s="22"/>
       <c r="AB19" s="46"/>
     </row>
-    <row r="20" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2417,7 +2432,7 @@
       <c r="AA20" s="22"/>
       <c r="AB20" s="46"/>
     </row>
-    <row r="21" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2453,7 +2468,7 @@
       <c r="AA21" s="22"/>
       <c r="AB21" s="46"/>
     </row>
-    <row r="22" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2489,7 +2504,7 @@
       <c r="AA22" s="22"/>
       <c r="AB22" s="46"/>
     </row>
-    <row r="23" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2525,7 +2540,7 @@
       <c r="AA23" s="22"/>
       <c r="AB23" s="46"/>
     </row>
-    <row r="24" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2561,7 +2576,7 @@
       <c r="AA24" s="22"/>
       <c r="AB24" s="46"/>
     </row>
-    <row r="25" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2597,7 +2612,7 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="46"/>
     </row>
-    <row r="26" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2633,7 +2648,7 @@
       <c r="AA26" s="22"/>
       <c r="AB26" s="46"/>
     </row>
-    <row r="27" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2669,7 +2684,7 @@
       <c r="AA27" s="22"/>
       <c r="AB27" s="46"/>
     </row>
-    <row r="28" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2705,7 +2720,7 @@
       <c r="AA28" s="22"/>
       <c r="AB28" s="46"/>
     </row>
-    <row r="29" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2741,7 +2756,7 @@
       <c r="AA29" s="22"/>
       <c r="AB29" s="46"/>
     </row>
-    <row r="30" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2777,7 +2792,7 @@
       <c r="AA30" s="22"/>
       <c r="AB30" s="46"/>
     </row>
-    <row r="31" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2813,7 +2828,7 @@
       <c r="AA31" s="22"/>
       <c r="AB31" s="46"/>
     </row>
-    <row r="32" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2849,7 +2864,7 @@
       <c r="AA32" s="22"/>
       <c r="AB32" s="46"/>
     </row>
-    <row r="33" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -2885,7 +2900,7 @@
       <c r="AA33" s="27"/>
       <c r="AB33" s="48"/>
     </row>
-    <row r="34" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -2979,7 +2994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -3049,7 +3064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="41" t="s">
         <v>10</v>
       </c>
@@ -3135,7 +3150,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="41" t="s">
         <v>12</v>
       </c>
@@ -3221,7 +3236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="49"/>
       <c r="F38" s="49"/>
       <c r="G38" s="50"/>
@@ -3245,7 +3260,7 @@
       <c r="Z38" s="40"/>
       <c r="AA38" s="40"/>
     </row>
-    <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E39" s="49"/>
       <c r="F39" s="49"/>
       <c r="G39" s="50"/>
@@ -3269,247 +3284,247 @@
       <c r="Z39" s="40"/>
       <c r="AA39" s="40"/>
     </row>
-    <row r="40" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>

--- a/Documents/Agile Project Management -Backlog.xlsx
+++ b/Documents/Agile Project Management -Backlog.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Cava\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="16980" windowHeight="5430"/>
+    <workbookView xWindow="276" yWindow="516" windowWidth="16980" windowHeight="5436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>Task</t>
   </si>
@@ -112,18 +117,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>Application starts with user/ADMIN previous settings</t>
-  </si>
-  <si>
-    <t>Application starts with user/ADMIN Login screen</t>
-  </si>
-  <si>
-    <t>Application allows user to ineract with embedded gui</t>
-  </si>
-  <si>
-    <t>Application saves user/Admin settings</t>
-  </si>
-  <si>
     <t>Design of whole software</t>
   </si>
   <si>
@@ -134,6 +127,84 @@
   </si>
   <si>
     <t>Delete weeks to 10-12</t>
+  </si>
+  <si>
+    <t>Search1</t>
+  </si>
+  <si>
+    <t>Search2</t>
+  </si>
+  <si>
+    <t>Search3</t>
+  </si>
+  <si>
+    <t>Search4</t>
+  </si>
+  <si>
+    <t>System shall save search</t>
+  </si>
+  <si>
+    <t>System shall  retrieve previous searchs</t>
+  </si>
+  <si>
+    <t>System shall  edit searchs</t>
+  </si>
+  <si>
+    <t>Application shall saves user/Admin settings</t>
+  </si>
+  <si>
+    <t>Application shall allow user to ineract with embedded gui</t>
+  </si>
+  <si>
+    <t>Application shall start with user/ADMIN Login screen</t>
+  </si>
+  <si>
+    <t>Application shall  start with user/ADMIN previous settings</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Preliminary</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Searchs</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>User/Admin</t>
+  </si>
+  <si>
+    <t>Customer/User/Admin</t>
+  </si>
+  <si>
+    <t>Admin/User</t>
+  </si>
+  <si>
+    <t>Testing 5</t>
+  </si>
+  <si>
+    <t>Testing 6</t>
+  </si>
+  <si>
+    <t>Testing 7</t>
+  </si>
+  <si>
+    <t>Testing 8</t>
+  </si>
+  <si>
+    <t>Error Checking</t>
+  </si>
+  <si>
+    <t>System shall validate search before ploting</t>
   </si>
 </sst>
 </file>
@@ -320,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -479,87 +550,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -597,21 +597,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -620,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -690,95 +675,137 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF008000"/>
@@ -897,7 +924,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$37</c:f>
+              <c:f>Sheet1!$H$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -920,132 +947,132 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$36:$AA$36</c:f>
+              <c:f>Sheet1!$I$41:$AA$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>52</c:v>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-22</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$37:$AA$37</c:f>
+              <c:f>Sheet1!$I$42:$AA$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,11 +1086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103122048"/>
-        <c:axId val="103123968"/>
+        <c:axId val="2089135152"/>
+        <c:axId val="2089144400"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="103122048"/>
+        <c:axId val="2089135152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1119,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103123968"/>
+        <c:crossAx val="2089144400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,7 +1127,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103123968"/>
+        <c:axId val="2089144400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103122048"/>
+        <c:crossAx val="2089135152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1173,7 +1200,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5562600" cy="3190874"/>
@@ -1240,7 +1267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1275,7 +1302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1484,33 +1511,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC100"/>
+  <dimension ref="A1:AC105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" style="11" customWidth="1"/>
     <col min="9" max="9" width="4" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="11" customWidth="1"/>
-    <col min="11" max="27" width="4.5703125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="11" customWidth="1"/>
+    <col min="11" max="27" width="4.5546875" style="11" customWidth="1"/>
     <col min="28" max="28" width="34" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="17.140625" style="11"/>
+    <col min="29" max="16384" width="17.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1595,9 +1622,9 @@
       <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="45"/>
-    </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AC1" s="40"/>
+    </row>
+    <row r="2" spans="1:29" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1626,11 +1653,17 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
@@ -1639,11 +1672,11 @@
         <v>2</v>
       </c>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H33" si="0">IF((G3&lt;SUM(J3:AA3)),SUM(J3:AA3),G3)</f>
+        <f t="shared" ref="H3:H38" si="0">IF((G3&lt;SUM(J3:AA3)),SUM(J3:AA3),G3)</f>
         <v>3</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:I33" si="1">IF((H3&gt;G3),($H3-(SUM($J3:$AA3))),($G3-(SUM($J3:$AA3))))</f>
+        <f t="shared" ref="I3:I38" si="1">IF((H3&gt;G3),($H3-(SUM($J3:$AA3))),($G3-(SUM($J3:$AA3))))</f>
         <v>0</v>
       </c>
       <c r="J3" s="17">
@@ -1670,15 +1703,21 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="19"/>
-      <c r="AB3" s="47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="AB3" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
@@ -1716,13 +1755,19 @@
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="22"/>
-      <c r="AB4" s="46"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="AB4" s="41"/>
+    </row>
+    <row r="5" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="E5" s="14" t="s">
         <v>3</v>
       </c>
@@ -1762,18 +1807,24 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="22"/>
-      <c r="AB5" s="46"/>
-    </row>
-    <row r="6" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="AB5" s="41"/>
+    </row>
+    <row r="6" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" s="13">
         <v>2</v>
@@ -1806,18 +1857,24 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="22"/>
-      <c r="AB6" s="46"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="AB6" s="41"/>
+    </row>
+    <row r="7" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="13">
         <v>4</v>
@@ -1852,22 +1909,24 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="22"/>
-      <c r="AB7" s="46"/>
-    </row>
-    <row r="8" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="AB7" s="41"/>
+    </row>
+    <row r="8" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G8" s="13">
         <v>5</v>
@@ -1904,22 +1963,24 @@
         <v>2</v>
       </c>
       <c r="AA8" s="22"/>
-      <c r="AB8" s="46"/>
-    </row>
-    <row r="9" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="AB8" s="41"/>
+    </row>
+    <row r="9" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
@@ -1954,22 +2015,24 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="22"/>
-      <c r="AB9" s="46"/>
-    </row>
-    <row r="10" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+      <c r="AB9" s="41"/>
+    </row>
+    <row r="10" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G10" s="13">
         <v>4</v>
@@ -2004,22 +2067,24 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="22"/>
-      <c r="AB10" s="46"/>
-    </row>
-    <row r="11" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="AB10" s="41"/>
+    </row>
+    <row r="11" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G11" s="13">
         <v>8</v>
@@ -2058,23 +2123,30 @@
       </c>
       <c r="Z11" s="21"/>
       <c r="AA11" s="22"/>
-      <c r="AB11" s="46"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="AB11" s="41"/>
+    </row>
+    <row r="12" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>10</v>
+      </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="13">
         <v>6</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13">
-        <v>3</v>
-      </c>
       <c r="H12" s="15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="1"/>
@@ -2086,39 +2158,46 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="P12" s="21">
+        <v>3</v>
+      </c>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="21">
-        <v>2</v>
-      </c>
+      <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="22"/>
-      <c r="AB12" s="46"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="AB12" s="41"/>
+    </row>
+    <row r="13" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="G13" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="1"/>
@@ -2129,38 +2208,47 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+      <c r="O13" s="21">
+        <v>3</v>
+      </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="S13" s="21">
+        <v>2</v>
+      </c>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
-      <c r="V13" s="21">
-        <v>4</v>
-      </c>
+      <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="22"/>
-      <c r="AB13" s="46"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="AB13" s="41"/>
+    </row>
+    <row r="14" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>12</v>
+      </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="G14" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="1"/>
@@ -2173,36 +2261,45 @@
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="Q14" s="21">
+        <v>2</v>
+      </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
+      <c r="U14" s="21">
+        <v>2</v>
+      </c>
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
-      <c r="Z14" s="21">
-        <v>2</v>
-      </c>
+      <c r="Z14" s="21"/>
       <c r="AA14" s="22"/>
-      <c r="AB14" s="46"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="AB14" s="41"/>
+    </row>
+    <row r="15" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>13</v>
+      </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="E15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="13">
         <v>6</v>
       </c>
       <c r="H15" s="15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
@@ -2214,47 +2311,51 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="P15" s="21">
+        <v>3</v>
+      </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="21">
+        <v>3</v>
+      </c>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
-      <c r="X15" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="21">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="21">
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="41"/>
+    </row>
+    <row r="16" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13">
+        <v>6</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="13">
         <v>3</v>
-      </c>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="46"/>
-    </row>
-    <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="13">
-        <v>8</v>
       </c>
       <c r="H16" s="15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
@@ -2265,42 +2366,48 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
+      <c r="S16" s="21">
+        <v>2</v>
+      </c>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21">
+      <c r="V16" s="21">
         <v>1</v>
       </c>
+      <c r="W16" s="21"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
-      <c r="Z16" s="21">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="22">
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="41"/>
+    </row>
+    <row r="17" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
+        <v>7</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="13">
         <v>3</v>
-      </c>
-      <c r="AB16" s="46"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="13">
-        <v>2</v>
       </c>
       <c r="H17" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
@@ -2314,27 +2421,39 @@
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
+      <c r="V17" s="21">
+        <v>4</v>
+      </c>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
-      <c r="AA17" s="22">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="46"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="41"/>
+    </row>
+    <row r="18" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
+        <v>8</v>
+      </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2</v>
+      </c>
       <c r="H18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
@@ -2356,21 +2475,35 @@
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
+      <c r="Z18" s="21">
+        <v>2</v>
+      </c>
       <c r="AA18" s="22"/>
-      <c r="AB18" s="46"/>
-    </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="AB18" s="41"/>
+    </row>
+    <row r="19" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13">
+        <v>9</v>
+      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="13">
+        <v>6</v>
+      </c>
       <c r="H19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="1"/>
@@ -2390,23 +2523,40 @@
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
+      <c r="X19" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>3</v>
+      </c>
       <c r="AA19" s="22"/>
-      <c r="AB19" s="46"/>
-    </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
+      <c r="AB19" s="41"/>
+    </row>
+    <row r="20" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>10</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="13">
+        <v>3</v>
+      </c>
+      <c r="H20" s="13">
+        <v>3</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="1"/>
@@ -2419,10 +2569,14 @@
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="Q20" s="21">
+        <v>2</v>
+      </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
+      <c r="T20" s="21">
+        <v>1</v>
+      </c>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -2430,19 +2584,30 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="22"/>
-      <c r="AB20" s="46"/>
-    </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
+      <c r="AB20" s="41"/>
+    </row>
+    <row r="21" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13">
+        <v>11</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="1"/>
@@ -2453,11 +2618,15 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="O21" s="21">
+        <v>1</v>
+      </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
+      <c r="S21" s="21">
+        <v>1</v>
+      </c>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
@@ -2466,19 +2635,30 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="22"/>
-      <c r="AB21" s="46"/>
-    </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="AB21" s="41"/>
+    </row>
+    <row r="22" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13">
+        <v>12</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="13">
+        <v>2</v>
+      </c>
+      <c r="H22" s="13">
+        <v>2</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="1"/>
@@ -2489,32 +2669,47 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="O22" s="21">
+        <v>1</v>
+      </c>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
+      <c r="U22" s="21">
+        <v>1</v>
+      </c>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="22"/>
-      <c r="AB22" s="46"/>
-    </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
+      <c r="AB22" s="41"/>
+    </row>
+    <row r="23" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13">
+        <v>13</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="13">
+        <v>4</v>
+      </c>
+      <c r="H23" s="13">
+        <v>4</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="1"/>
@@ -2526,9 +2721,13 @@
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
+      <c r="P23" s="21">
+        <v>2</v>
+      </c>
       <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
+      <c r="R23" s="21">
+        <v>2</v>
+      </c>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
@@ -2538,19 +2737,29 @@
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="22"/>
-      <c r="AB23" s="46"/>
-    </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="AB23" s="41"/>
+    </row>
+    <row r="24" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>18</v>
+      </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="13">
+        <v>8</v>
+      </c>
       <c r="H24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="1"/>
@@ -2563,30 +2772,44 @@
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="Q24" s="21">
+        <v>2</v>
+      </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
+      <c r="W24" s="21">
+        <v>1</v>
+      </c>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="46"/>
-    </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="Z24" s="21">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="41"/>
+    </row>
+    <row r="25" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>19</v>
+      </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="13">
+        <v>2</v>
+      </c>
       <c r="H25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="1"/>
@@ -2609,11 +2832,15 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="46"/>
-    </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="AA25" s="22">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="41"/>
+    </row>
+    <row r="26" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>18</v>
+      </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2646,10 +2873,12 @@
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="22"/>
-      <c r="AB26" s="46"/>
-    </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="AB26" s="41"/>
+    </row>
+    <row r="27" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>19</v>
+      </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2682,10 +2911,12 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="22"/>
-      <c r="AB27" s="46"/>
-    </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="AB27" s="41"/>
+    </row>
+    <row r="28" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>20</v>
+      </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2718,10 +2949,12 @@
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="22"/>
-      <c r="AB28" s="46"/>
-    </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="AB28" s="41"/>
+    </row>
+    <row r="29" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>21</v>
+      </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2754,10 +2987,12 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="22"/>
-      <c r="AB29" s="46"/>
-    </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="AB29" s="41"/>
+    </row>
+    <row r="30" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>22</v>
+      </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2790,10 +3025,12 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
       <c r="AA30" s="22"/>
-      <c r="AB30" s="46"/>
-    </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="AB30" s="41"/>
+    </row>
+    <row r="31" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>23</v>
+      </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2826,10 +3063,12 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
       <c r="AA31" s="22"/>
-      <c r="AB31" s="46"/>
-    </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="AB31" s="41"/>
+    </row>
+    <row r="32" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>24</v>
+      </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2862,13 +3101,15 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
       <c r="AA32" s="22"/>
-      <c r="AB32" s="46"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="AB32" s="41"/>
+    </row>
+    <row r="33" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>25</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="13"/>
@@ -2880,703 +3121,893 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="48"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29" t="s">
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="41"/>
+    </row>
+    <row r="34" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>26</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="41"/>
+    </row>
+    <row r="35" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>27</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="41"/>
+    </row>
+    <row r="36" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>28</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="41"/>
+    </row>
+    <row r="37" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>29</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="41"/>
+    </row>
+    <row r="38" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>30</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="41"/>
+    </row>
+    <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31">
-        <f>SUM(G3:G33)</f>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26">
+        <f>SUM(G3:G38)</f>
+        <v>89</v>
+      </c>
+      <c r="H39" s="27">
+        <f>SUM(H3:H38)</f>
+        <v>93</v>
+      </c>
+      <c r="I39" s="27">
+        <f>SUM(I3:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="28">
+        <f>SUM(J3:J25)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="28">
+        <f>SUM(K3:K25)</f>
+        <v>3</v>
+      </c>
+      <c r="L39" s="28">
+        <f>SUM(L3:L25)</f>
+        <v>3</v>
+      </c>
+      <c r="M39" s="28">
+        <f>SUM(M3:M25)</f>
+        <v>3</v>
+      </c>
+      <c r="N39" s="28">
+        <f>SUM(N3:N25)</f>
+        <v>2</v>
+      </c>
+      <c r="O39" s="28">
+        <f>SUM(O3:O25)</f>
+        <v>7</v>
+      </c>
+      <c r="P39" s="28">
+        <f>SUM(P3:P25)</f>
+        <v>8</v>
+      </c>
+      <c r="Q39" s="28">
+        <f>SUM(Q3:Q25)</f>
+        <v>7</v>
+      </c>
+      <c r="R39" s="28">
+        <f>SUM(R3:R25)</f>
+        <v>4</v>
+      </c>
+      <c r="S39" s="28">
+        <f>SUM(S3:S25)</f>
+        <v>7</v>
+      </c>
+      <c r="T39" s="28">
+        <f>SUM(T3:T25)</f>
+        <v>7</v>
+      </c>
+      <c r="U39" s="28">
+        <f>SUM(U3:U25)</f>
+        <v>7</v>
+      </c>
+      <c r="V39" s="28">
+        <f>SUM(V3:V25)</f>
+        <v>8</v>
+      </c>
+      <c r="W39" s="28">
+        <f>SUM(W3:W25)</f>
+        <v>6</v>
+      </c>
+      <c r="X39" s="28">
+        <f>SUM(X3:X25)</f>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="28">
+        <f>SUM(Y3:Y25)</f>
+        <v>5</v>
+      </c>
+      <c r="Z39" s="28">
+        <f>SUM(Z3:Z25)</f>
+        <v>9</v>
+      </c>
+      <c r="AA39" s="28">
+        <f>SUM(AA3:AA25)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32">
+        <f>G39-SUM(J40:AA40)</f>
+        <v>10</v>
+      </c>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="7">
+        <v>5</v>
+      </c>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>5</v>
+      </c>
+      <c r="M40" s="7">
+        <v>4</v>
+      </c>
+      <c r="N40" s="7">
+        <v>5</v>
+      </c>
+      <c r="O40" s="7">
+        <v>4</v>
+      </c>
+      <c r="P40" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>4</v>
+      </c>
+      <c r="R40" s="7">
+        <v>5</v>
+      </c>
+      <c r="S40" s="7">
+        <v>4</v>
+      </c>
+      <c r="T40" s="7">
+        <v>4</v>
+      </c>
+      <c r="U40" s="7">
+        <v>5</v>
+      </c>
+      <c r="V40" s="7">
+        <v>4</v>
+      </c>
+      <c r="W40" s="7">
+        <v>4</v>
+      </c>
+      <c r="X40" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA40" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="37">
+        <f>G39</f>
+        <v>89</v>
+      </c>
+      <c r="J41" s="39">
+        <f t="shared" ref="J41:AA41" si="2">I41-J40</f>
+        <v>84</v>
+      </c>
+      <c r="K41" s="39">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="L41" s="39">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="M41" s="39">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="N41" s="39">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="O41" s="39">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="P41" s="39">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="H34" s="32">
-        <f>SUM(H3:H33)</f>
-        <v>61</v>
-      </c>
-      <c r="I34" s="32">
-        <f>SUM(I3:I33)</f>
-        <v>3</v>
-      </c>
-      <c r="J34" s="33">
-        <f t="shared" ref="J34:AA34" si="2">SUM(J3:J18)</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="33">
+      <c r="Q41" s="39">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="L34" s="33">
+        <v>53</v>
+      </c>
+      <c r="R41" s="39">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M34" s="33">
+        <v>48</v>
+      </c>
+      <c r="S41" s="39">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="N34" s="33">
+        <v>44</v>
+      </c>
+      <c r="T41" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O34" s="33">
+        <v>40</v>
+      </c>
+      <c r="U41" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="P34" s="33">
+        <v>35</v>
+      </c>
+      <c r="V41" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="33">
+        <v>31</v>
+      </c>
+      <c r="W41" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="R34" s="33">
+        <v>27</v>
+      </c>
+      <c r="X41" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="S34" s="33">
+        <v>23</v>
+      </c>
+      <c r="Y41" s="39">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="T34" s="33">
+        <v>18</v>
+      </c>
+      <c r="Z41" s="39">
+        <f>Y41-Z40</f>
+        <v>14</v>
+      </c>
+      <c r="AA41" s="39">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="U34" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V34" s="33">
-        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="37">
+        <f>H39</f>
+        <v>93</v>
+      </c>
+      <c r="J42" s="37">
+        <f>$H$39-SUM(J$3:J$38)</f>
+        <v>92</v>
+      </c>
+      <c r="K42" s="37">
+        <f>J42-SUM(K3:K38)</f>
+        <v>89</v>
+      </c>
+      <c r="L42" s="37">
+        <f>K42-SUM(L3:L38)</f>
+        <v>86</v>
+      </c>
+      <c r="M42" s="37">
+        <f>L42-SUM(M3:M38)</f>
+        <v>83</v>
+      </c>
+      <c r="N42" s="37">
+        <f>M42-SUM(N3:N38)</f>
+        <v>81</v>
+      </c>
+      <c r="O42" s="37">
+        <f>N42-SUM(O3:O38)</f>
+        <v>74</v>
+      </c>
+      <c r="P42" s="37">
+        <f>O42-SUM(P3:P38)</f>
+        <v>66</v>
+      </c>
+      <c r="Q42" s="37">
+        <f>P42-SUM(Q3:Q38)</f>
+        <v>59</v>
+      </c>
+      <c r="R42" s="37">
+        <f>Q42-SUM(R3:R38)</f>
+        <v>55</v>
+      </c>
+      <c r="S42" s="37">
+        <f>R42-SUM(S3:S38)</f>
+        <v>48</v>
+      </c>
+      <c r="T42" s="37">
+        <f>S42-SUM(T3:T38)</f>
+        <v>41</v>
+      </c>
+      <c r="U42" s="37">
+        <f>T42-SUM(U3:U38)</f>
+        <v>34</v>
+      </c>
+      <c r="V42" s="37">
+        <f>U42-SUM(V3:V38)</f>
+        <v>26</v>
+      </c>
+      <c r="W42" s="37">
+        <f>V42-SUM(W3:W38)</f>
+        <v>20</v>
+      </c>
+      <c r="X42" s="37">
+        <f>W42-SUM(X3:X38)</f>
+        <v>19</v>
+      </c>
+      <c r="Y42" s="37">
+        <f>X42-SUM(Y3:Y38)</f>
+        <v>14</v>
+      </c>
+      <c r="Z42" s="37">
+        <f>Y42-SUM(Z3:Z38)</f>
         <v>5</v>
       </c>
-      <c r="W34" s="33">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="X34" s="33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y34" s="33">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Z34" s="33">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AA34" s="33">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37">
-        <f>G34-SUM(J35:AA35)</f>
-        <v>-22</v>
-      </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="7">
-        <v>5</v>
-      </c>
-      <c r="K35" s="7">
-        <v>4</v>
-      </c>
-      <c r="L35" s="7">
-        <v>5</v>
-      </c>
-      <c r="M35" s="7">
-        <v>4</v>
-      </c>
-      <c r="N35" s="7">
-        <v>5</v>
-      </c>
-      <c r="O35" s="7">
-        <v>4</v>
-      </c>
-      <c r="P35" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>4</v>
-      </c>
-      <c r="R35" s="7">
-        <v>5</v>
-      </c>
-      <c r="S35" s="7">
-        <v>4</v>
-      </c>
-      <c r="T35" s="7">
-        <v>4</v>
-      </c>
-      <c r="U35" s="7">
-        <v>5</v>
-      </c>
-      <c r="V35" s="7">
-        <v>4</v>
-      </c>
-      <c r="W35" s="7">
-        <v>4</v>
-      </c>
-      <c r="X35" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="7">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="42">
-        <f>G34</f>
-        <v>57</v>
-      </c>
-      <c r="J36" s="44">
-        <f t="shared" ref="J36:AA36" si="3">I36-J35</f>
-        <v>52</v>
-      </c>
-      <c r="K36" s="44">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="L36" s="44">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="M36" s="44">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="N36" s="44">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="O36" s="44">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="P36" s="44">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Q36" s="44">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="R36" s="44">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="S36" s="44">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="T36" s="44">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="U36" s="44">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="V36" s="44">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="W36" s="44">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-      <c r="X36" s="44">
-        <f t="shared" si="3"/>
-        <v>-9</v>
-      </c>
-      <c r="Y36" s="44">
-        <f t="shared" si="3"/>
-        <v>-14</v>
-      </c>
-      <c r="Z36" s="44">
-        <f>Y36-Z35</f>
-        <v>-18</v>
-      </c>
-      <c r="AA36" s="44">
-        <f t="shared" si="3"/>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="42">
-        <f>H34</f>
-        <v>61</v>
-      </c>
-      <c r="J37" s="42">
-        <f>$H$34-SUM(J$3:J$33)</f>
-        <v>60</v>
-      </c>
-      <c r="K37" s="42">
-        <f t="shared" ref="K37:AA37" si="4">J37-SUM(K3:K33)</f>
-        <v>57</v>
-      </c>
-      <c r="L37" s="42">
-        <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="M37" s="42">
-        <f t="shared" si="4"/>
-        <v>51</v>
-      </c>
-      <c r="N37" s="42">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="O37" s="42">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="P37" s="42">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="Q37" s="42">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="R37" s="42">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="S37" s="42">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="T37" s="42">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="U37" s="42">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="V37" s="42">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="W37" s="42">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="X37" s="42">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="Y37" s="42">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="Z37" s="42">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AA37" s="42">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA42" s="37">
+        <f>Z42-SUM(AA3:AA38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+    </row>
+    <row r="44" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+    </row>
+    <row r="45" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
+    <row r="101" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E44:I44"/>
   </mergeCells>
-  <conditionalFormatting sqref="E36:E37 H36:AA37">
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E41:E42 H41:AA42">
+    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
-    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G40">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I33">
-    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="I3:I38">
+    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:F35 I35">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E40:F40 I40">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:AA33">
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="J3:AA38">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:G37">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F41:G42">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/Agile Project Management -Backlog.xlsx
+++ b/Documents/Agile Project Management -Backlog.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Cava\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="276" yWindow="516" windowWidth="16980" windowHeight="5436"/>
+    <workbookView xWindow="270" yWindow="510" windowWidth="16980" windowHeight="5430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>Task</t>
   </si>
@@ -115,18 +110,6 @@
   </si>
   <si>
     <t>Main</t>
-  </si>
-  <si>
-    <t>Design of whole software</t>
-  </si>
-  <si>
-    <t>Design of UI</t>
-  </si>
-  <si>
-    <t>Help documentations</t>
-  </si>
-  <si>
-    <t>Delete weeks to 10-12</t>
   </si>
   <si>
     <t>Search1</t>
@@ -305,6 +288,27 @@
   <si>
     <t>Testing 15</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer requires a desktop application program that maps shortest way between points</t>
+  </si>
+  <si>
+    <t>Application needs a basic layout to fit in input and output requirements</t>
+  </si>
+  <si>
+    <t>Needs overview application process to fulfill users and google earth requirement</t>
+  </si>
+  <si>
+    <t>Needs connection between the wirframing pages - how GUI will react to user actions</t>
+  </si>
+  <si>
+    <t>Users/Admins need help documentation when using application</t>
+  </si>
+  <si>
+    <t>Different documentation and specification needed to design application</t>
+  </si>
+  <si>
+    <t>Team/Customer</t>
   </si>
 </sst>
 </file>
@@ -847,44 +851,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -899,26 +903,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1134,61 +1118,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>146</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>64</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,11 +1186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1463996032"/>
-        <c:axId val="-1463995488"/>
+        <c:axId val="95000448"/>
+        <c:axId val="95002624"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1463996032"/>
+        <c:axId val="95000448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1219,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1463995488"/>
+        <c:crossAx val="95002624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1243,7 +1227,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1463995488"/>
+        <c:axId val="95002624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1463996032"/>
+        <c:crossAx val="95000448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1383,7 +1367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1418,7 +1402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,30 +1614,30 @@
   <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23:B37"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="4" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="11" customWidth="1"/>
-    <col min="11" max="27" width="4.5546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="11" customWidth="1"/>
+    <col min="11" max="27" width="4.5703125" style="11" customWidth="1"/>
     <col min="28" max="28" width="34" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="17.109375" style="11"/>
+    <col min="29" max="16384" width="17.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1740,7 +1724,7 @@
       </c>
       <c r="AC1" s="40"/>
     </row>
-    <row r="2" spans="1:29" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1769,27 +1753,29 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="G3" s="13">
         <v>2</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" ref="H3:H11" si="0">IF((G3&lt;SUM(J3:AA3)),SUM(J3:AA3),G3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="16">
         <f t="shared" ref="I3:I15" si="1">IF((H3&gt;G3),($H3-(SUM($J3:$AA3))),($G3-(SUM($J3:$AA3))))</f>
@@ -1801,9 +1787,7 @@
       <c r="K3" s="18">
         <v>1</v>
       </c>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
+      <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
@@ -1819,37 +1803,39 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="19"/>
-      <c r="AB3" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="AB3" s="42"/>
+    </row>
+    <row r="4" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="G4" s="13">
         <v>2</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="20">
+        <v>1</v>
+      </c>
       <c r="K4" s="21">
         <v>1</v>
       </c>
@@ -1873,21 +1859,23 @@
       <c r="AA4" s="22"/>
       <c r="AB4" s="41"/>
     </row>
-    <row r="5" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="G5" s="13">
         <v>3</v>
       </c>
@@ -1897,7 +1885,7 @@
       </c>
       <c r="I5" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="21">
@@ -1906,9 +1894,7 @@
       <c r="L5" s="21">
         <v>1</v>
       </c>
-      <c r="M5" s="21">
-        <v>1</v>
-      </c>
+      <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -1925,39 +1911,45 @@
       <c r="AA5" s="22"/>
       <c r="AB5" s="41"/>
     </row>
-    <row r="6" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="G6" s="13">
         <v>2</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="J6" s="20">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <v>1</v>
+      </c>
       <c r="M6" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
@@ -1975,22 +1967,22 @@
       <c r="AA6" s="22"/>
       <c r="AB6" s="41"/>
     </row>
-    <row r="7" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="G7" s="13">
         <v>4</v>
@@ -2001,18 +1993,18 @@
       </c>
       <c r="I7" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21">
-        <v>2</v>
-      </c>
-      <c r="O7" s="21">
-        <v>2</v>
-      </c>
+      <c r="L7" s="21">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21">
+        <v>2</v>
+      </c>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -2027,7 +2019,7 @@
       <c r="AA7" s="22"/>
       <c r="AB7" s="41"/>
     </row>
-    <row r="8" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2036,13 +2028,13 @@
         <v>31</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G8" s="13">
         <v>5</v>
@@ -2081,7 +2073,7 @@
       <c r="AA8" s="22"/>
       <c r="AB8" s="41"/>
     </row>
-    <row r="9" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2090,13 +2082,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
@@ -2133,7 +2125,7 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="41"/>
     </row>
-    <row r="10" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2142,13 +2134,13 @@
         <v>31</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" s="13">
         <v>4</v>
@@ -2185,7 +2177,7 @@
       <c r="AA10" s="22"/>
       <c r="AB10" s="41"/>
     </row>
-    <row r="11" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2194,13 +2186,13 @@
         <v>31</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G11" s="13">
         <v>8</v>
@@ -2241,22 +2233,22 @@
       <c r="AA11" s="22"/>
       <c r="AB11" s="41"/>
     </row>
-    <row r="12" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="G12" s="13">
         <v>6</v>
@@ -2292,22 +2284,22 @@
       <c r="AA12" s="22"/>
       <c r="AB12" s="41"/>
     </row>
-    <row r="13" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="G13" s="13">
         <v>5</v>
@@ -2343,22 +2335,22 @@
       <c r="AA13" s="22"/>
       <c r="AB13" s="41"/>
     </row>
-    <row r="14" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>12</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="G14" s="13">
         <v>4</v>
@@ -2394,22 +2386,22 @@
       <c r="AA14" s="22"/>
       <c r="AB14" s="41"/>
     </row>
-    <row r="15" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>13</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G15" s="13">
         <v>6</v>
@@ -2445,1198 +2437,1196 @@
       <c r="AA15" s="22"/>
       <c r="AB15" s="41"/>
     </row>
-    <row r="16" spans="1:29" s="53" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="45">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="43">
         <v>5</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="45">
         <v>4</v>
       </c>
-      <c r="I16" s="48">
-        <v>0</v>
-      </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50">
-        <v>1</v>
-      </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50">
-        <v>1</v>
-      </c>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="52"/>
-    </row>
-    <row r="17" spans="1:28" s="53" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I16" s="46">
+        <v>0</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48">
+        <v>1</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48">
+        <v>1</v>
+      </c>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="50"/>
+    </row>
+    <row r="17" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="45">
+      <c r="G17" s="43">
         <v>4</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="45">
         <v>4</v>
       </c>
-      <c r="I17" s="48">
-        <v>0</v>
-      </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50">
-        <v>2</v>
-      </c>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50">
-        <v>2</v>
-      </c>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="52"/>
-    </row>
-    <row r="18" spans="1:28" s="53" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I17" s="46">
+        <v>0</v>
+      </c>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48">
+        <v>2</v>
+      </c>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48">
+        <v>2</v>
+      </c>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="50"/>
+    </row>
+    <row r="18" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="45">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="43">
         <v>5</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="45">
         <v>5</v>
       </c>
-      <c r="I18" s="48">
-        <v>0</v>
-      </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50">
-        <v>1</v>
-      </c>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50">
-        <v>2</v>
-      </c>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="52"/>
-    </row>
-    <row r="19" spans="1:28" s="53" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I18" s="46">
+        <v>0</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48">
+        <v>1</v>
+      </c>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48">
+        <v>2</v>
+      </c>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="50"/>
+    </row>
+    <row r="19" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="45">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="43">
         <v>4</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="45">
         <v>4</v>
       </c>
-      <c r="I19" s="48">
-        <v>0</v>
-      </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50">
-        <v>2</v>
-      </c>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="52"/>
-    </row>
-    <row r="20" spans="1:28" s="53" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I19" s="46">
+        <v>0</v>
+      </c>
+      <c r="J19" s="47"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48">
+        <v>2</v>
+      </c>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="50"/>
+    </row>
+    <row r="20" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="45">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="43">
         <v>4</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="45">
         <v>4</v>
       </c>
-      <c r="I20" s="48">
-        <v>0</v>
-      </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50">
-        <v>1</v>
-      </c>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50">
-        <v>2</v>
-      </c>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-    </row>
-    <row r="21" spans="1:28" s="53" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I20" s="46">
+        <v>0</v>
+      </c>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48">
+        <v>1</v>
+      </c>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48">
+        <v>2</v>
+      </c>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="50"/>
+    </row>
+    <row r="21" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="45">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="43">
         <v>6</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="45">
         <v>6</v>
       </c>
-      <c r="I21" s="48">
-        <v>0</v>
-      </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50">
-        <v>2</v>
-      </c>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50">
-        <v>2</v>
-      </c>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50">
-        <v>2</v>
-      </c>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="51"/>
-      <c r="AB21" s="52"/>
-    </row>
-    <row r="22" spans="1:28" s="53" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="I21" s="46">
+        <v>0</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48">
+        <v>2</v>
+      </c>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48">
+        <v>2</v>
+      </c>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48">
+        <v>2</v>
+      </c>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="50"/>
+    </row>
+    <row r="22" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="45">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="43">
         <v>7</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="45">
         <v>7</v>
       </c>
-      <c r="I22" s="48">
-        <v>0</v>
-      </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50">
-        <v>2</v>
-      </c>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50">
-        <v>2</v>
-      </c>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50">
-        <v>2</v>
-      </c>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="52"/>
-    </row>
-    <row r="23" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I22" s="46">
+        <v>0</v>
+      </c>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48">
+        <v>2</v>
+      </c>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48">
+        <v>2</v>
+      </c>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48">
+        <v>2</v>
+      </c>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="50"/>
+    </row>
+    <row r="23" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="43">
         <v>6</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="46" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="45">
+      <c r="F23" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="43">
         <v>3</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="45">
         <f t="shared" ref="H23:H38" si="2">IF((G23&lt;SUM(J23:AA23)),SUM(J23:AA23),G23)</f>
         <v>3</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="46">
         <f t="shared" ref="I23:I38" si="3">IF((H23&gt;G23),($H23-(SUM($J23:$AA23))),($G23-(SUM($J23:$AA23))))</f>
         <v>0</v>
       </c>
-      <c r="J23" s="49"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50">
-        <v>2</v>
-      </c>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50">
-        <v>1</v>
-      </c>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="52"/>
-    </row>
-    <row r="24" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48">
+        <v>2</v>
+      </c>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48">
+        <v>1</v>
+      </c>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="50"/>
+    </row>
+    <row r="24" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="43">
         <v>7</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="46" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="45">
+      <c r="F24" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="43">
         <v>3</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="45">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50">
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48">
         <v>4</v>
       </c>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="52"/>
-    </row>
-    <row r="25" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="50"/>
+    </row>
+    <row r="25" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="43">
         <v>8</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="46" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="45">
-        <v>2</v>
-      </c>
-      <c r="H25" s="47">
+      <c r="F25" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="43">
+        <v>2</v>
+      </c>
+      <c r="H25" s="45">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50">
-        <v>2</v>
-      </c>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="52"/>
-    </row>
-    <row r="26" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="50"/>
+    </row>
+    <row r="26" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="43">
         <v>9</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="46" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="45">
+      <c r="F26" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="43">
         <v>6</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="45">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="50">
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="48">
         <v>4</v>
       </c>
-      <c r="Z26" s="50">
+      <c r="Z26" s="48">
         <v>3</v>
       </c>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="52"/>
-    </row>
-    <row r="27" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="50"/>
+    </row>
+    <row r="27" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="43">
         <v>10</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="46" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="45">
+      <c r="G27" s="43">
         <v>3</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="43">
         <v>3</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50">
-        <v>2</v>
-      </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50">
-        <v>1</v>
-      </c>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="52"/>
-    </row>
-    <row r="28" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J27" s="47"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48">
+        <v>2</v>
+      </c>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48">
+        <v>1</v>
+      </c>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="50"/>
+    </row>
+    <row r="28" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="43">
         <v>11</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="45">
-        <v>2</v>
-      </c>
-      <c r="H28" s="45">
-        <v>2</v>
-      </c>
-      <c r="I28" s="48">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="43">
+        <v>2</v>
+      </c>
+      <c r="H28" s="43">
+        <v>2</v>
+      </c>
+      <c r="I28" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50">
-        <v>1</v>
-      </c>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50">
-        <v>1</v>
-      </c>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="52"/>
-    </row>
-    <row r="29" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48">
+        <v>1</v>
+      </c>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48">
+        <v>1</v>
+      </c>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="50"/>
+    </row>
+    <row r="29" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="43">
         <v>12</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="45">
-        <v>2</v>
-      </c>
-      <c r="H29" s="45">
-        <v>2</v>
-      </c>
-      <c r="I29" s="48">
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="43">
+        <v>2</v>
+      </c>
+      <c r="H29" s="43">
+        <v>2</v>
+      </c>
+      <c r="I29" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50">
-        <v>1</v>
-      </c>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50">
-        <v>1</v>
-      </c>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="52"/>
-    </row>
-    <row r="30" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48">
+        <v>1</v>
+      </c>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48">
+        <v>1</v>
+      </c>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="50"/>
+    </row>
+    <row r="30" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="43">
         <v>13</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="45">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="43">
         <v>4</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="43">
         <v>4</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50">
-        <v>2</v>
-      </c>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="52"/>
-    </row>
-    <row r="31" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J30" s="47"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48">
+        <v>2</v>
+      </c>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="50"/>
+    </row>
+    <row r="31" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="43">
         <v>14</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="45">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="43">
         <v>3</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="43">
         <v>3</v>
       </c>
-      <c r="I31" s="48">
-        <v>0</v>
-      </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50">
-        <v>2</v>
-      </c>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50">
-        <v>1</v>
-      </c>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="52"/>
-    </row>
-    <row r="32" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I31" s="46">
+        <v>0</v>
+      </c>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48">
+        <v>2</v>
+      </c>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48">
+        <v>1</v>
+      </c>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="50"/>
+    </row>
+    <row r="32" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="43">
         <v>15</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="45">
-        <v>2</v>
-      </c>
-      <c r="H32" s="45">
-        <v>2</v>
-      </c>
-      <c r="I32" s="48">
-        <v>0</v>
-      </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50">
-        <v>1</v>
-      </c>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50">
-        <v>1</v>
-      </c>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="50"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="52"/>
-    </row>
-    <row r="33" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="43">
+        <v>2</v>
+      </c>
+      <c r="H32" s="43">
+        <v>2</v>
+      </c>
+      <c r="I32" s="46">
+        <v>0</v>
+      </c>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48">
+        <v>1</v>
+      </c>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48">
+        <v>1</v>
+      </c>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="50"/>
+    </row>
+    <row r="33" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="43">
         <v>16</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45" t="s">
+      <c r="C33" s="43"/>
+      <c r="D33" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="45">
-        <v>2</v>
-      </c>
-      <c r="H33" s="45">
-        <v>2</v>
-      </c>
-      <c r="I33" s="48">
-        <v>0</v>
-      </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50">
-        <v>1</v>
-      </c>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="52"/>
-    </row>
-    <row r="34" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F33" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="43">
+        <v>2</v>
+      </c>
+      <c r="H33" s="43">
+        <v>2</v>
+      </c>
+      <c r="I33" s="46">
+        <v>0</v>
+      </c>
+      <c r="J33" s="47"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48">
+        <v>1</v>
+      </c>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="50"/>
+    </row>
+    <row r="34" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="43">
         <v>17</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="45">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="43">
         <v>3</v>
       </c>
-      <c r="H34" s="45">
+      <c r="H34" s="43">
         <v>3</v>
       </c>
-      <c r="I34" s="48">
-        <v>0</v>
-      </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50">
-        <v>1</v>
-      </c>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50">
-        <v>1</v>
-      </c>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="52"/>
-    </row>
-    <row r="35" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I34" s="46">
+        <v>0</v>
+      </c>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48">
+        <v>1</v>
+      </c>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48">
+        <v>1</v>
+      </c>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="50"/>
+    </row>
+    <row r="35" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="43">
         <v>18</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="46" t="s">
+      <c r="C35" s="43"/>
+      <c r="D35" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="45">
-        <v>2</v>
-      </c>
-      <c r="H35" s="45">
-        <v>2</v>
-      </c>
-      <c r="I35" s="48">
-        <v>0</v>
-      </c>
-      <c r="J35" s="49"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50">
-        <v>1</v>
-      </c>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="52"/>
-    </row>
-    <row r="36" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F35" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="43">
+        <v>2</v>
+      </c>
+      <c r="H35" s="43">
+        <v>2</v>
+      </c>
+      <c r="I35" s="46">
+        <v>0</v>
+      </c>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48">
+        <v>1</v>
+      </c>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="50"/>
+    </row>
+    <row r="36" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="43">
         <v>19</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="45">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="43">
         <v>3</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="43">
         <v>3</v>
       </c>
-      <c r="I36" s="48">
-        <v>0</v>
-      </c>
-      <c r="J36" s="49"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50">
-        <v>1</v>
-      </c>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50">
-        <v>1</v>
-      </c>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="50">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="50"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="52"/>
-    </row>
-    <row r="37" spans="1:28" s="53" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I36" s="46">
+        <v>0</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48">
+        <v>1</v>
+      </c>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48">
+        <v>1</v>
+      </c>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="50"/>
+    </row>
+    <row r="37" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="43">
         <v>20</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="45">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="43">
         <v>4</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="43">
         <v>4</v>
       </c>
-      <c r="I37" s="48">
-        <v>0</v>
-      </c>
-      <c r="J37" s="49"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50">
-        <v>1</v>
-      </c>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50">
-        <v>1</v>
-      </c>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50">
-        <v>1</v>
-      </c>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="52"/>
-    </row>
-    <row r="38" spans="1:28" s="53" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I37" s="46">
+        <v>0</v>
+      </c>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48">
+        <v>1</v>
+      </c>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48">
+        <v>1</v>
+      </c>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48">
+        <v>1</v>
+      </c>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="50"/>
+    </row>
+    <row r="38" spans="1:28" s="51" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="46" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="45">
+      <c r="F38" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="43">
         <v>8</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="45">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="49"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50">
-        <v>2</v>
-      </c>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50">
-        <v>1</v>
-      </c>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50">
-        <v>2</v>
-      </c>
-      <c r="AA38" s="51">
+        <v>2</v>
+      </c>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48">
+        <v>1</v>
+      </c>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="49">
         <v>3</v>
       </c>
-      <c r="AB38" s="52"/>
-    </row>
-    <row r="39" spans="1:28" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="AB38" s="50"/>
+    </row>
+    <row r="39" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>16</v>
@@ -3646,11 +3636,11 @@
         <v>2</v>
       </c>
       <c r="H39" s="15">
-        <f>IF((G39&lt;SUM(J39:AA39)),SUM(J39:AA39),G39)</f>
+        <f t="shared" ref="H39:H52" si="4">IF((G39&lt;SUM(J39:AA39)),SUM(J39:AA39),G39)</f>
         <v>2</v>
       </c>
       <c r="I39" s="16">
-        <f>IF((H39&gt;G39),($H39-(SUM($J39:$AA39))),($G39-(SUM($J39:$AA39))))</f>
+        <f t="shared" ref="I39:I52" si="5">IF((H39&gt;G39),($H39-(SUM($J39:$AA39))),($G39-(SUM($J39:$AA39))))</f>
         <v>0</v>
       </c>
       <c r="J39" s="20"/>
@@ -3675,7 +3665,7 @@
       </c>
       <c r="AB39" s="41"/>
     </row>
-    <row r="40" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>18</v>
       </c>
@@ -3686,11 +3676,11 @@
       <c r="F40" s="14"/>
       <c r="G40" s="13"/>
       <c r="H40" s="15">
-        <f>IF((G40&lt;SUM(J40:AA40)),SUM(J40:AA40),G40)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I40" s="16">
-        <f>IF((H40&gt;G40),($H40-(SUM($J40:$AA40))),($G40-(SUM($J40:$AA40))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J40" s="20"/>
@@ -3713,7 +3703,7 @@
       <c r="AA40" s="22"/>
       <c r="AB40" s="41"/>
     </row>
-    <row r="41" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>19</v>
       </c>
@@ -3724,11 +3714,11 @@
       <c r="F41" s="14"/>
       <c r="G41" s="13"/>
       <c r="H41" s="15">
-        <f>IF((G41&lt;SUM(J41:AA41)),SUM(J41:AA41),G41)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I41" s="16">
-        <f>IF((H41&gt;G41),($H41-(SUM($J41:$AA41))),($G41-(SUM($J41:$AA41))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J41" s="20"/>
@@ -3751,7 +3741,7 @@
       <c r="AA41" s="22"/>
       <c r="AB41" s="41"/>
     </row>
-    <row r="42" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>20</v>
       </c>
@@ -3762,11 +3752,11 @@
       <c r="F42" s="14"/>
       <c r="G42" s="13"/>
       <c r="H42" s="15">
-        <f>IF((G42&lt;SUM(J42:AA42)),SUM(J42:AA42),G42)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I42" s="16">
-        <f>IF((H42&gt;G42),($H42-(SUM($J42:$AA42))),($G42-(SUM($J42:$AA42))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J42" s="20"/>
@@ -3789,7 +3779,7 @@
       <c r="AA42" s="22"/>
       <c r="AB42" s="41"/>
     </row>
-    <row r="43" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>21</v>
       </c>
@@ -3800,11 +3790,11 @@
       <c r="F43" s="14"/>
       <c r="G43" s="13"/>
       <c r="H43" s="15">
-        <f>IF((G43&lt;SUM(J43:AA43)),SUM(J43:AA43),G43)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I43" s="16">
-        <f>IF((H43&gt;G43),($H43-(SUM($J43:$AA43))),($G43-(SUM($J43:$AA43))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J43" s="20"/>
@@ -3827,7 +3817,7 @@
       <c r="AA43" s="22"/>
       <c r="AB43" s="41"/>
     </row>
-    <row r="44" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>22</v>
       </c>
@@ -3838,11 +3828,11 @@
       <c r="F44" s="14"/>
       <c r="G44" s="13"/>
       <c r="H44" s="15">
-        <f>IF((G44&lt;SUM(J44:AA44)),SUM(J44:AA44),G44)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I44" s="16">
-        <f>IF((H44&gt;G44),($H44-(SUM($J44:$AA44))),($G44-(SUM($J44:$AA44))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J44" s="20"/>
@@ -3865,7 +3855,7 @@
       <c r="AA44" s="22"/>
       <c r="AB44" s="41"/>
     </row>
-    <row r="45" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>23</v>
       </c>
@@ -3876,11 +3866,11 @@
       <c r="F45" s="14"/>
       <c r="G45" s="13"/>
       <c r="H45" s="15">
-        <f>IF((G45&lt;SUM(J45:AA45)),SUM(J45:AA45),G45)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I45" s="16">
-        <f>IF((H45&gt;G45),($H45-(SUM($J45:$AA45))),($G45-(SUM($J45:$AA45))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J45" s="20"/>
@@ -3903,7 +3893,7 @@
       <c r="AA45" s="22"/>
       <c r="AB45" s="41"/>
     </row>
-    <row r="46" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>24</v>
       </c>
@@ -3914,11 +3904,11 @@
       <c r="F46" s="14"/>
       <c r="G46" s="13"/>
       <c r="H46" s="15">
-        <f>IF((G46&lt;SUM(J46:AA46)),SUM(J46:AA46),G46)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46" s="16">
-        <f>IF((H46&gt;G46),($H46-(SUM($J46:$AA46))),($G46-(SUM($J46:$AA46))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J46" s="20"/>
@@ -3941,7 +3931,7 @@
       <c r="AA46" s="22"/>
       <c r="AB46" s="41"/>
     </row>
-    <row r="47" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>25</v>
       </c>
@@ -3952,11 +3942,11 @@
       <c r="F47" s="14"/>
       <c r="G47" s="13"/>
       <c r="H47" s="15">
-        <f>IF((G47&lt;SUM(J47:AA47)),SUM(J47:AA47),G47)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I47" s="16">
-        <f>IF((H47&gt;G47),($H47-(SUM($J47:$AA47))),($G47-(SUM($J47:$AA47))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J47" s="20"/>
@@ -3979,7 +3969,7 @@
       <c r="AA47" s="22"/>
       <c r="AB47" s="41"/>
     </row>
-    <row r="48" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>26</v>
       </c>
@@ -3990,11 +3980,11 @@
       <c r="F48" s="14"/>
       <c r="G48" s="13"/>
       <c r="H48" s="15">
-        <f>IF((G48&lt;SUM(J48:AA48)),SUM(J48:AA48),G48)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I48" s="16">
-        <f>IF((H48&gt;G48),($H48-(SUM($J48:$AA48))),($G48-(SUM($J48:$AA48))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J48" s="20"/>
@@ -4017,7 +4007,7 @@
       <c r="AA48" s="22"/>
       <c r="AB48" s="41"/>
     </row>
-    <row r="49" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>27</v>
       </c>
@@ -4028,11 +4018,11 @@
       <c r="F49" s="14"/>
       <c r="G49" s="13"/>
       <c r="H49" s="15">
-        <f>IF((G49&lt;SUM(J49:AA49)),SUM(J49:AA49),G49)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I49" s="16">
-        <f>IF((H49&gt;G49),($H49-(SUM($J49:$AA49))),($G49-(SUM($J49:$AA49))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J49" s="20"/>
@@ -4055,7 +4045,7 @@
       <c r="AA49" s="22"/>
       <c r="AB49" s="41"/>
     </row>
-    <row r="50" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>28</v>
       </c>
@@ -4066,11 +4056,11 @@
       <c r="F50" s="14"/>
       <c r="G50" s="13"/>
       <c r="H50" s="15">
-        <f>IF((G50&lt;SUM(J50:AA50)),SUM(J50:AA50),G50)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I50" s="16">
-        <f>IF((H50&gt;G50),($H50-(SUM($J50:$AA50))),($G50-(SUM($J50:$AA50))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J50" s="20"/>
@@ -4093,7 +4083,7 @@
       <c r="AA50" s="22"/>
       <c r="AB50" s="41"/>
     </row>
-    <row r="51" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>29</v>
       </c>
@@ -4104,11 +4094,11 @@
       <c r="F51" s="14"/>
       <c r="G51" s="13"/>
       <c r="H51" s="15">
-        <f>IF((G51&lt;SUM(J51:AA51)),SUM(J51:AA51),G51)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I51" s="16">
-        <f>IF((H51&gt;G51),($H51-(SUM($J51:$AA51))),($G51-(SUM($J51:$AA51))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J51" s="20"/>
@@ -4131,7 +4121,7 @@
       <c r="AA51" s="22"/>
       <c r="AB51" s="41"/>
     </row>
-    <row r="52" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>30</v>
       </c>
@@ -4142,11 +4132,11 @@
       <c r="F52" s="14"/>
       <c r="G52" s="13"/>
       <c r="H52" s="15">
-        <f>IF((G52&lt;SUM(J52:AA52)),SUM(J52:AA52),G52)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I52" s="16">
-        <f>IF((H52&gt;G52),($H52-(SUM($J52:$AA52))),($G52-(SUM($J52:$AA52))))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J52" s="20"/>
@@ -4169,7 +4159,7 @@
       <c r="AA52" s="22"/>
       <c r="AB52" s="41"/>
     </row>
-    <row r="53" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -4184,86 +4174,86 @@
       </c>
       <c r="H53" s="27">
         <f>SUM(H3:H52)</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I53" s="27">
         <f>SUM(I3:I52)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J53" s="28">
-        <f>SUM(J3:J39)</f>
-        <v>1</v>
+        <f t="shared" ref="J53:AA53" si="6">SUM(J3:J39)</f>
+        <v>3</v>
       </c>
       <c r="K53" s="28">
-        <f>SUM(K3:K39)</f>
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L53" s="28">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M53" s="28">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="L53" s="28">
-        <f>SUM(L3:L39)</f>
-        <v>3</v>
-      </c>
-      <c r="M53" s="28">
-        <f>SUM(M3:M39)</f>
-        <v>3</v>
-      </c>
       <c r="N53" s="28">
-        <f>SUM(N3:N39)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O53" s="28">
-        <f>SUM(O3:O39)</f>
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="P53" s="28">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Q53" s="28">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="R53" s="28">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="S53" s="28">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="T53" s="28">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="U53" s="28">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="V53" s="28">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="W53" s="28">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="X53" s="28">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Y53" s="28">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Z53" s="28">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="P53" s="28">
-        <f>SUM(P3:P39)</f>
-        <v>12</v>
-      </c>
-      <c r="Q53" s="28">
-        <f>SUM(Q3:Q39)</f>
-        <v>10</v>
-      </c>
-      <c r="R53" s="28">
-        <f>SUM(R3:R39)</f>
-        <v>7</v>
-      </c>
-      <c r="S53" s="28">
-        <f>SUM(S3:S39)</f>
-        <v>14</v>
-      </c>
-      <c r="T53" s="28">
-        <f>SUM(T3:T39)</f>
-        <v>15</v>
-      </c>
-      <c r="U53" s="28">
-        <f>SUM(U3:U39)</f>
-        <v>8</v>
-      </c>
-      <c r="V53" s="28">
-        <f>SUM(V3:V39)</f>
-        <v>17</v>
-      </c>
-      <c r="W53" s="28">
-        <f>SUM(W3:W39)</f>
-        <v>10</v>
-      </c>
-      <c r="X53" s="28">
-        <f>SUM(X3:X39)</f>
-        <v>4</v>
-      </c>
-      <c r="Y53" s="28">
-        <f>SUM(Y3:Y39)</f>
-        <v>9</v>
-      </c>
-      <c r="Z53" s="28">
-        <f>SUM(Z3:Z39)</f>
-        <v>11</v>
-      </c>
       <c r="AA53" s="28">
-        <f>SUM(AA3:AA39)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -4333,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="36" t="s">
         <v>10</v>
       </c>
@@ -4347,67 +4337,67 @@
         <v>143</v>
       </c>
       <c r="J55" s="39">
-        <f t="shared" ref="J55:AA55" si="4">I55-J54</f>
+        <f t="shared" ref="J55:AA55" si="7">I55-J54</f>
         <v>138</v>
       </c>
       <c r="K55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>134</v>
       </c>
       <c r="L55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="M55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="N55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="O55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
       <c r="P55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="Q55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="R55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="S55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="T55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="U55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="V55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="W55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="X55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="Y55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="Z55" s="39">
@@ -4415,11 +4405,11 @@
         <v>68</v>
       </c>
       <c r="AA55" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E56" s="36" t="s">
         <v>12</v>
       </c>
@@ -4430,87 +4420,87 @@
       </c>
       <c r="I56" s="37">
         <f>H53</f>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J56" s="37">
         <f>$H$53-SUM(J$3:J$52)</f>
         <v>145</v>
       </c>
       <c r="K56" s="37">
-        <f>J56-SUM(K3:K52)</f>
-        <v>142</v>
+        <f t="shared" ref="K56:AA56" si="8">J56-SUM(K3:K52)</f>
+        <v>141</v>
       </c>
       <c r="L56" s="37">
-        <f>K56-SUM(L3:L52)</f>
-        <v>139</v>
+        <f t="shared" si="8"/>
+        <v>137</v>
       </c>
       <c r="M56" s="37">
-        <f>L56-SUM(M3:M52)</f>
-        <v>136</v>
+        <f t="shared" si="8"/>
+        <v>134</v>
       </c>
       <c r="N56" s="37">
-        <f>M56-SUM(N3:N52)</f>
+        <f t="shared" si="8"/>
         <v>133</v>
       </c>
       <c r="O56" s="37">
-        <f>N56-SUM(O3:O52)</f>
-        <v>122</v>
+        <f t="shared" si="8"/>
+        <v>124</v>
       </c>
       <c r="P56" s="37">
-        <f>O56-SUM(P3:P52)</f>
-        <v>110</v>
+        <f t="shared" si="8"/>
+        <v>112</v>
       </c>
       <c r="Q56" s="37">
-        <f>P56-SUM(Q3:Q52)</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>104</v>
       </c>
       <c r="R56" s="37">
-        <f>Q56-SUM(R3:R52)</f>
-        <v>93</v>
+        <f t="shared" si="8"/>
+        <v>97</v>
       </c>
       <c r="S56" s="37">
-        <f>R56-SUM(S3:S52)</f>
-        <v>79</v>
+        <f t="shared" si="8"/>
+        <v>83</v>
       </c>
       <c r="T56" s="37">
-        <f>S56-SUM(T3:T52)</f>
-        <v>64</v>
+        <f t="shared" si="8"/>
+        <v>68</v>
       </c>
       <c r="U56" s="37">
-        <f>T56-SUM(U3:U52)</f>
-        <v>56</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
       <c r="V56" s="37">
-        <f>U56-SUM(V3:V52)</f>
-        <v>39</v>
+        <f t="shared" si="8"/>
+        <v>43</v>
       </c>
       <c r="W56" s="37">
-        <f>V56-SUM(W3:W52)</f>
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="X56" s="37">
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="X56" s="37">
-        <f>W56-SUM(X3:X52)</f>
-        <v>25</v>
-      </c>
       <c r="Y56" s="37">
-        <f>X56-SUM(Y3:Y52)</f>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="Z56" s="37">
-        <f>Y56-SUM(Z3:Z52)</f>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>9</v>
       </c>
       <c r="AA56" s="37">
-        <f>Z56-SUM(AA3:AA52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
@@ -4529,12 +4519,12 @@
       <c r="Z57" s="35"/>
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
@@ -4553,247 +4543,247 @@
       <c r="Z58" s="35"/>
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
@@ -4803,59 +4793,53 @@
     <mergeCell ref="E58:I58"/>
   </mergeCells>
   <conditionalFormatting sqref="E55:E56 H55:AA56">
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I15 I39:I52">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:F54 I54">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:AA15 J39:AA52">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="6" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:G56">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="cellIs" dxfId="3" priority="-1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="-1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/Documents/Agile Project Management -Backlog.xlsx
+++ b/Documents/Agile Project Management -Backlog.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Cava\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="276" yWindow="516" windowWidth="16980" windowHeight="5436"/>
+    <workbookView xWindow="270" yWindow="510" windowWidth="16980" windowHeight="5430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
   <si>
     <t>Task</t>
   </si>
@@ -314,13 +309,73 @@
   </si>
   <si>
     <t>Team/Customer</t>
+  </si>
+  <si>
+    <t>GUI1</t>
+  </si>
+  <si>
+    <t>GUI that admin/user log in</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>GUI2</t>
+  </si>
+  <si>
+    <t>GUI that admin modify the location</t>
+  </si>
+  <si>
+    <t>GUI3</t>
+  </si>
+  <si>
+    <t>GUI that admin add the location</t>
+  </si>
+  <si>
+    <t>GUI4</t>
+  </si>
+  <si>
+    <t>GUI that allow user to switch to admin account</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>GUI5</t>
+  </si>
+  <si>
+    <t>GUI that allow user to select the locations</t>
+  </si>
+  <si>
+    <t>GUI6</t>
+  </si>
+  <si>
+    <t>GUI that allow user to sign up</t>
+  </si>
+  <si>
+    <t>Testing 16</t>
+  </si>
+  <si>
+    <t>Testing 17</t>
+  </si>
+  <si>
+    <t>Testing 18</t>
+  </si>
+  <si>
+    <t>Testing 19</t>
+  </si>
+  <si>
+    <t>Testing 20</t>
+  </si>
+  <si>
+    <t>Testing 21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -384,6 +439,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -726,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -889,11 +950,80 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -993,6 +1123,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1013,10 +1160,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1029,7 +1174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$56</c:f>
+              <c:f>Sheet1!$H$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1052,150 +1197,143 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$55:$AA$55</c:f>
+              <c:f>Sheet1!$I$67:$AA$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>143</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>134</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>107</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>64</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$56:$AA$56</c:f>
+              <c:f>Sheet1!$I$68:$AA$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>148</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-511603936"/>
-        <c:axId val="-511613728"/>
+        <c:dLbls/>
+        <c:axId val="109433600"/>
+        <c:axId val="109435520"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-511603936"/>
+        <c:axId val="109433600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,13 +1356,12 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-511613728"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="109435520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1232,11 +1369,10 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-511613728"/>
+        <c:axId val="109435520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1256,7 +1392,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -1277,7 +1412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-511603936"/>
+        <c:crossAx val="109433600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1285,7 +1420,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -1293,7 +1427,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1305,7 +1439,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5562600" cy="3190874"/>
@@ -1330,7 +1464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1372,7 +1506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1404,10 +1538,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1439,7 +1572,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1615,34 +1747,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="4" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" style="11" customWidth="1"/>
-    <col min="11" max="27" width="4.5546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="11" customWidth="1"/>
+    <col min="11" max="27" width="4.5703125" style="11" customWidth="1"/>
     <col min="28" max="28" width="34" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="17.109375" style="11"/>
+    <col min="29" max="16384" width="17.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="59.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1729,7 +1861,7 @@
       </c>
       <c r="AC1" s="40"/>
     </row>
-    <row r="2" spans="1:29" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" hidden="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1758,7 +1890,7 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="76.5">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1810,7 +1942,7 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="42"/>
     </row>
-    <row r="4" spans="1:29" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="63.75">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1864,7 +1996,7 @@
       <c r="AA4" s="22"/>
       <c r="AB4" s="41"/>
     </row>
-    <row r="5" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="51">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1918,7 +2050,7 @@
       <c r="AA5" s="22"/>
       <c r="AB5" s="41"/>
     </row>
-    <row r="6" spans="1:29" ht="66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="63.75">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1974,7 +2106,7 @@
       <c r="AA6" s="22"/>
       <c r="AB6" s="41"/>
     </row>
-    <row r="7" spans="1:29" ht="66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="63.75">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2026,7 +2158,7 @@
       <c r="AA7" s="22"/>
       <c r="AB7" s="41"/>
     </row>
-    <row r="8" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="51">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2080,7 +2212,7 @@
       <c r="AA8" s="22"/>
       <c r="AB8" s="41"/>
     </row>
-    <row r="9" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="51">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2132,7 +2264,7 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="41"/>
     </row>
-    <row r="10" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="51">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2184,7 +2316,7 @@
       <c r="AA10" s="22"/>
       <c r="AB10" s="41"/>
     </row>
-    <row r="11" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="38.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2240,7 +2372,7 @@
       <c r="AA11" s="22"/>
       <c r="AB11" s="41"/>
     </row>
-    <row r="12" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="25.5">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2291,7 +2423,7 @@
       <c r="AA12" s="22"/>
       <c r="AB12" s="41"/>
     </row>
-    <row r="13" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="38.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2342,7 +2474,7 @@
       <c r="AA13" s="22"/>
       <c r="AB13" s="41"/>
     </row>
-    <row r="14" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="25.5">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2393,7 +2525,7 @@
       <c r="AA14" s="22"/>
       <c r="AB14" s="41"/>
     </row>
-    <row r="15" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="38.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2444,7 +2576,7 @@
       <c r="AA15" s="22"/>
       <c r="AB15" s="41"/>
     </row>
-    <row r="16" spans="1:29" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="51" customFormat="1" ht="25.5">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -2496,7 +2628,7 @@
       <c r="AA16" s="49"/>
       <c r="AB16" s="50"/>
     </row>
-    <row r="17" spans="1:28" s="51" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="51" customFormat="1" ht="38.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -2546,7 +2678,7 @@
       <c r="AA17" s="49"/>
       <c r="AB17" s="50"/>
     </row>
-    <row r="18" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="51" customFormat="1" ht="25.5">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -2598,7 +2730,7 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
     </row>
-    <row r="19" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="51" customFormat="1" ht="25.5">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -2648,7 +2780,7 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="50"/>
     </row>
-    <row r="20" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="51" customFormat="1" ht="25.5">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -2700,7 +2832,7 @@
       <c r="AA20" s="49"/>
       <c r="AB20" s="50"/>
     </row>
-    <row r="21" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="51" customFormat="1" ht="25.5">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -2752,7 +2884,7 @@
       <c r="AA21" s="49"/>
       <c r="AB21" s="50"/>
     </row>
-    <row r="22" spans="1:28" s="51" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="51" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -2806,32 +2938,30 @@
       <c r="AA22" s="49"/>
       <c r="AB22" s="50"/>
     </row>
-    <row r="23" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="51" customFormat="1" ht="25.5">
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="43">
-        <v>6</v>
-      </c>
-      <c r="C23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="G23" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" s="45">
-        <f t="shared" ref="H23:H38" si="2">IF((G23&lt;SUM(J23:AA23)),SUM(J23:AA23),G23)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" s="46">
-        <f t="shared" ref="I23:I38" si="3">IF((H23&gt;G23),($H23-(SUM($J23:$AA23))),($G23-(SUM($J23:$AA23))))</f>
         <v>0</v>
       </c>
       <c r="J23" s="47"/>
@@ -2839,17 +2969,21 @@
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
       <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
+      <c r="O23" s="54">
+        <v>1</v>
+      </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48">
-        <v>2</v>
-      </c>
-      <c r="T23" s="48"/>
+      <c r="R23" s="48">
+        <v>1</v>
+      </c>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48">
+        <v>1</v>
+      </c>
       <c r="U23" s="48"/>
       <c r="V23" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23" s="48"/>
       <c r="X23" s="48"/>
@@ -2858,32 +2992,30 @@
       <c r="AA23" s="49"/>
       <c r="AB23" s="50"/>
     </row>
-    <row r="24" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="51" customFormat="1" ht="38.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="43">
-        <v>7</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43" t="s">
-        <v>47</v>
+      <c r="B24" s="43"/>
+      <c r="C24" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="G24" s="43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H24" s="45">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I24" s="46">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="47"/>
@@ -2893,14 +3025,18 @@
       <c r="N24" s="48"/>
       <c r="O24" s="48"/>
       <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="48">
+        <v>2</v>
+      </c>
       <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
+      <c r="S24" s="48">
+        <v>1</v>
+      </c>
       <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48">
-        <v>4</v>
-      </c>
+      <c r="U24" s="48">
+        <v>3</v>
+      </c>
+      <c r="V24" s="48"/>
       <c r="W24" s="48"/>
       <c r="X24" s="48"/>
       <c r="Y24" s="48"/>
@@ -2908,32 +3044,30 @@
       <c r="AA24" s="49"/>
       <c r="AB24" s="50"/>
     </row>
-    <row r="25" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="51" customFormat="1" ht="25.5">
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="43">
-        <v>8</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43" t="s">
-        <v>47</v>
+      <c r="B25" s="43"/>
+      <c r="C25" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F25" s="44" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="G25" s="43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H25" s="45">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I25" s="46">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J25" s="47"/>
@@ -2944,46 +3078,48 @@
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
+      <c r="R25" s="48">
+        <v>3</v>
+      </c>
       <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
+      <c r="T25" s="48">
+        <v>1</v>
+      </c>
+      <c r="U25" s="48">
+        <v>1</v>
+      </c>
       <c r="V25" s="48"/>
       <c r="W25" s="48"/>
       <c r="X25" s="48"/>
       <c r="Y25" s="48"/>
-      <c r="Z25" s="48">
-        <v>2</v>
-      </c>
+      <c r="Z25" s="48"/>
       <c r="AA25" s="49"/>
       <c r="AB25" s="50"/>
     </row>
-    <row r="26" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="51" customFormat="1" ht="38.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="43">
-        <v>9</v>
-      </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43" t="s">
-        <v>47</v>
+      <c r="B26" s="43"/>
+      <c r="C26" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>92</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="G26" s="43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" s="45">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I26" s="46">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J26" s="47"/>
@@ -2997,46 +3133,47 @@
       <c r="R26" s="48"/>
       <c r="S26" s="48"/>
       <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
+      <c r="U26" s="48">
+        <v>3</v>
+      </c>
       <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
+      <c r="W26" s="48">
+        <v>1</v>
+      </c>
       <c r="X26" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="48">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="48">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Z26" s="48"/>
       <c r="AA26" s="49"/>
       <c r="AB26" s="50"/>
     </row>
-    <row r="27" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="51" customFormat="1" ht="38.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="43">
-        <v>10</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43" t="s">
-        <v>47</v>
+      <c r="B27" s="43"/>
+      <c r="C27" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="G27" s="43">
-        <v>3</v>
-      </c>
-      <c r="H27" s="43">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H27" s="45">
+        <v>5</v>
       </c>
       <c r="I27" s="46">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="47"/>
@@ -3046,99 +3183,97 @@
       <c r="N27" s="48"/>
       <c r="O27" s="48"/>
       <c r="P27" s="48"/>
-      <c r="Q27" s="48">
-        <v>2</v>
-      </c>
+      <c r="Q27" s="48"/>
       <c r="R27" s="48"/>
       <c r="S27" s="48"/>
-      <c r="T27" s="48">
-        <v>1</v>
-      </c>
+      <c r="T27" s="48"/>
       <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
+      <c r="V27" s="48">
+        <v>1</v>
+      </c>
       <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
+      <c r="X27" s="48">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="48">
+        <v>1</v>
+      </c>
       <c r="Z27" s="48"/>
       <c r="AA27" s="49"/>
       <c r="AB27" s="50"/>
     </row>
-    <row r="28" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="59" customFormat="1" ht="25.5">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="43">
-        <v>11</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43" t="s">
-        <v>47</v>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="43">
-        <v>2</v>
-      </c>
-      <c r="H28" s="43">
-        <v>2</v>
+        <v>103</v>
+      </c>
+      <c r="G28" s="55">
+        <v>5</v>
+      </c>
+      <c r="H28" s="45">
+        <v>5</v>
       </c>
       <c r="I28" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48">
-        <v>1</v>
-      </c>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48">
-        <v>1</v>
-      </c>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="50"/>
-    </row>
-    <row r="29" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J28" s="56"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="58"/>
+    </row>
+    <row r="29" spans="1:28" s="51" customFormat="1">
       <c r="A29" s="12">
         <v>27</v>
       </c>
       <c r="B29" s="43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="F29" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="43">
-        <v>2</v>
-      </c>
-      <c r="H29" s="43">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H29" s="45">
+        <f t="shared" ref="H29:H50" si="2">IF((G29&lt;SUM(J29:AA29)),SUM(J29:AA29),G29)</f>
+        <v>3</v>
       </c>
       <c r="I29" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I29:I50" si="3">IF((H29&gt;G29),($H29-(SUM($J29:$AA29))),($G29-(SUM($J29:$AA29))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="47"/>
@@ -3146,18 +3281,18 @@
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
       <c r="N29" s="48"/>
-      <c r="O29" s="48">
-        <v>1</v>
-      </c>
+      <c r="O29" s="48"/>
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
       <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
+      <c r="S29" s="48">
+        <v>2</v>
+      </c>
       <c r="T29" s="48"/>
-      <c r="U29" s="48">
-        <v>1</v>
-      </c>
-      <c r="V29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48">
+        <v>1</v>
+      </c>
       <c r="W29" s="48"/>
       <c r="X29" s="48"/>
       <c r="Y29" s="48"/>
@@ -3165,27 +3300,28 @@
       <c r="AA29" s="49"/>
       <c r="AB29" s="50"/>
     </row>
-    <row r="30" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="51" customFormat="1">
       <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="43">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F30" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="43">
-        <v>4</v>
-      </c>
-      <c r="H30" s="43">
+        <v>3</v>
+      </c>
+      <c r="H30" s="45">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I30" s="46">
@@ -3198,17 +3334,15 @@
       <c r="M30" s="48"/>
       <c r="N30" s="48"/>
       <c r="O30" s="48"/>
-      <c r="P30" s="48">
-        <v>2</v>
-      </c>
+      <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
-      <c r="R30" s="48">
-        <v>2</v>
-      </c>
+      <c r="R30" s="48"/>
       <c r="S30" s="48"/>
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
+      <c r="V30" s="48">
+        <v>4</v>
+      </c>
       <c r="W30" s="48"/>
       <c r="X30" s="48"/>
       <c r="Y30" s="48"/>
@@ -3216,30 +3350,32 @@
       <c r="AA30" s="49"/>
       <c r="AB30" s="50"/>
     </row>
-    <row r="31" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="51" customFormat="1">
       <c r="A31" s="12">
         <v>29</v>
       </c>
       <c r="B31" s="43">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G31" s="43">
-        <v>3</v>
-      </c>
-      <c r="H31" s="43">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H31" s="45">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="I31" s="46">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J31" s="47"/>
@@ -3251,45 +3387,45 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="48"/>
-      <c r="S31" s="48">
-        <v>2</v>
-      </c>
+      <c r="S31" s="48"/>
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
-      <c r="V31" s="48">
-        <v>1</v>
-      </c>
+      <c r="V31" s="48"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
+      <c r="Z31" s="48">
+        <v>2</v>
+      </c>
       <c r="AA31" s="49"/>
       <c r="AB31" s="50"/>
     </row>
-    <row r="32" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" s="51" customFormat="1">
       <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="43">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G32" s="43">
-        <v>2</v>
-      </c>
-      <c r="H32" s="43">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="H32" s="45">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="I32" s="46">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J32" s="47"/>
@@ -3302,44 +3438,47 @@
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
       <c r="S32" s="48"/>
-      <c r="T32" s="48">
-        <v>1</v>
-      </c>
+      <c r="T32" s="48"/>
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="48">
-        <v>1</v>
-      </c>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="48">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="48">
+        <v>3</v>
+      </c>
       <c r="AA32" s="49"/>
       <c r="AB32" s="50"/>
     </row>
-    <row r="33" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" s="51" customFormat="1">
       <c r="A33" s="12">
         <v>31</v>
       </c>
       <c r="B33" s="43">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G33" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="46">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J33" s="47"/>
@@ -3349,47 +3488,48 @@
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
       <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
+      <c r="Q33" s="48">
+        <v>2</v>
+      </c>
       <c r="R33" s="48"/>
-      <c r="S33" s="48">
-        <v>1</v>
-      </c>
-      <c r="T33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48">
+        <v>1</v>
+      </c>
       <c r="U33" s="48"/>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
-      <c r="X33" s="48">
-        <v>1</v>
-      </c>
+      <c r="X33" s="48"/>
       <c r="Y33" s="48"/>
       <c r="Z33" s="48"/>
       <c r="AA33" s="49"/>
       <c r="AB33" s="50"/>
     </row>
-    <row r="34" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" s="51" customFormat="1">
       <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="43">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G34" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="46">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J34" s="47"/>
@@ -3397,43 +3537,41 @@
       <c r="L34" s="48"/>
       <c r="M34" s="48"/>
       <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
+      <c r="O34" s="48">
+        <v>1</v>
+      </c>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
       <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
+      <c r="S34" s="48">
+        <v>1</v>
+      </c>
       <c r="T34" s="48"/>
-      <c r="U34" s="48">
-        <v>1</v>
-      </c>
+      <c r="U34" s="48"/>
       <c r="V34" s="48"/>
-      <c r="W34" s="48">
-        <v>1</v>
-      </c>
+      <c r="W34" s="48"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
-      <c r="Z34" s="48">
-        <v>1</v>
-      </c>
+      <c r="Z34" s="48"/>
       <c r="AA34" s="49"/>
       <c r="AB34" s="50"/>
     </row>
-    <row r="35" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" s="51" customFormat="1">
       <c r="A35" s="12">
         <v>33</v>
       </c>
       <c r="B35" s="43">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G35" s="43">
         <v>2</v>
@@ -3442,6 +3580,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="46">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J35" s="47"/>
@@ -3449,49 +3588,50 @@
       <c r="L35" s="48"/>
       <c r="M35" s="48"/>
       <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
+      <c r="O35" s="48">
+        <v>1</v>
+      </c>
       <c r="P35" s="48"/>
-      <c r="Q35" s="48">
-        <v>1</v>
-      </c>
+      <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
       <c r="S35" s="48"/>
       <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
+      <c r="U35" s="48">
+        <v>1</v>
+      </c>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
-      <c r="X35" s="48">
-        <v>1</v>
-      </c>
+      <c r="X35" s="48"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="48"/>
       <c r="AA35" s="49"/>
       <c r="AB35" s="50"/>
     </row>
-    <row r="36" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="51" customFormat="1">
       <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="43">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G36" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="46">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J36" s="47"/>
@@ -3500,48 +3640,46 @@
       <c r="M36" s="48"/>
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
+      <c r="P36" s="48">
+        <v>2</v>
+      </c>
       <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
+      <c r="R36" s="48">
+        <v>2</v>
+      </c>
       <c r="S36" s="48"/>
-      <c r="T36" s="48">
-        <v>1</v>
-      </c>
+      <c r="T36" s="48"/>
       <c r="U36" s="48"/>
-      <c r="V36" s="48">
-        <v>1</v>
-      </c>
+      <c r="V36" s="48"/>
       <c r="W36" s="48"/>
       <c r="X36" s="48"/>
-      <c r="Y36" s="48">
-        <v>1</v>
-      </c>
+      <c r="Y36" s="48"/>
       <c r="Z36" s="48"/>
       <c r="AA36" s="49"/>
       <c r="AB36" s="50"/>
     </row>
-    <row r="37" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" s="51" customFormat="1">
       <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="43">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" s="46">
         <v>0</v>
@@ -3554,51 +3692,47 @@
       <c r="O37" s="48"/>
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
-      <c r="R37" s="48">
-        <v>1</v>
-      </c>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48">
-        <v>1</v>
-      </c>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48">
+        <v>2</v>
+      </c>
+      <c r="T37" s="48"/>
       <c r="U37" s="48"/>
       <c r="V37" s="48">
         <v>1</v>
       </c>
       <c r="W37" s="48"/>
-      <c r="X37" s="48">
-        <v>1</v>
-      </c>
+      <c r="X37" s="48"/>
       <c r="Y37" s="48"/>
       <c r="Z37" s="48"/>
       <c r="AA37" s="49"/>
       <c r="AB37" s="50"/>
     </row>
-    <row r="38" spans="1:28" s="51" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="51" customFormat="1">
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="43"/>
+      <c r="B38" s="43">
+        <v>15</v>
+      </c>
       <c r="C38" s="43"/>
       <c r="D38" s="43" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G38" s="43">
-        <v>8</v>
-      </c>
-      <c r="H38" s="45">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="H38" s="43">
+        <v>2</v>
       </c>
       <c r="I38" s="46">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="48"/>
@@ -3610,7 +3744,9 @@
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
+      <c r="T38" s="48">
+        <v>1</v>
+      </c>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48">
@@ -3618,494 +3754,638 @@
       </c>
       <c r="X38" s="48"/>
       <c r="Y38" s="48"/>
-      <c r="Z38" s="48">
-        <v>2</v>
-      </c>
-      <c r="AA38" s="49">
-        <v>3</v>
-      </c>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="49"/>
       <c r="AB38" s="50"/>
     </row>
-    <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="51" customFormat="1">
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="B39" s="43">
         <v>16</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13">
-        <v>2</v>
-      </c>
-      <c r="H39" s="15">
-        <f t="shared" ref="H39:H52" si="4">IF((G39&lt;SUM(J39:AA39)),SUM(J39:AA39),G39)</f>
-        <v>2</v>
-      </c>
-      <c r="I39" s="16">
-        <f t="shared" ref="I39:I52" si="5">IF((H39&gt;G39),($H39-(SUM($J39:$AA39))),($G39-(SUM($J39:$AA39))))</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="22">
-        <v>2</v>
-      </c>
-      <c r="AB39" s="41"/>
-    </row>
-    <row r="40" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="43">
+        <v>2</v>
+      </c>
+      <c r="H39" s="43">
+        <v>2</v>
+      </c>
+      <c r="I39" s="46">
+        <v>0</v>
+      </c>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48">
+        <v>1</v>
+      </c>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="50"/>
+    </row>
+    <row r="40" spans="1:28" s="51" customFormat="1">
       <c r="A40" s="12">
+        <v>38</v>
+      </c>
+      <c r="B40" s="43">
+        <v>17</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="43">
+        <v>3</v>
+      </c>
+      <c r="H40" s="43">
+        <v>3</v>
+      </c>
+      <c r="I40" s="46">
+        <v>0</v>
+      </c>
+      <c r="J40" s="47"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48">
+        <v>1</v>
+      </c>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48">
+        <v>1</v>
+      </c>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="49"/>
+      <c r="AB40" s="50"/>
+    </row>
+    <row r="41" spans="1:28" s="51" customFormat="1">
+      <c r="A41" s="12">
+        <v>39</v>
+      </c>
+      <c r="B41" s="43">
         <v>18</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="41"/>
-    </row>
-    <row r="41" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="43">
+        <v>2</v>
+      </c>
+      <c r="H41" s="43">
+        <v>2</v>
+      </c>
+      <c r="I41" s="46">
+        <v>0</v>
+      </c>
+      <c r="J41" s="47"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48">
+        <v>1</v>
+      </c>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="49"/>
+      <c r="AB41" s="50"/>
+    </row>
+    <row r="42" spans="1:28" s="51" customFormat="1">
+      <c r="A42" s="12">
+        <v>40</v>
+      </c>
+      <c r="B42" s="43">
         <v>19</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="41"/>
-    </row>
-    <row r="42" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="C42" s="43"/>
+      <c r="D42" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="43">
+        <v>3</v>
+      </c>
+      <c r="H42" s="43">
+        <v>3</v>
+      </c>
+      <c r="I42" s="46">
+        <v>0</v>
+      </c>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48">
+        <v>1</v>
+      </c>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48">
+        <v>1</v>
+      </c>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="50"/>
+    </row>
+    <row r="43" spans="1:28" s="51" customFormat="1">
+      <c r="A43" s="12">
+        <v>41</v>
+      </c>
+      <c r="B43" s="43">
         <v>20</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="22"/>
-      <c r="AB42" s="41"/>
-    </row>
-    <row r="43" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="C43" s="43"/>
+      <c r="D43" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="43">
+        <v>4</v>
+      </c>
+      <c r="H43" s="43">
+        <v>4</v>
+      </c>
+      <c r="I43" s="46">
+        <v>0</v>
+      </c>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48">
+        <v>1</v>
+      </c>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48">
+        <v>1</v>
+      </c>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48">
+        <v>1</v>
+      </c>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="50"/>
+    </row>
+    <row r="44" spans="1:28" s="51" customFormat="1">
+      <c r="A44" s="12">
+        <v>42</v>
+      </c>
+      <c r="B44" s="43">
         <v>21</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="41"/>
-    </row>
-    <row r="44" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="C44" s="43"/>
+      <c r="D44" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="43">
+        <v>4</v>
+      </c>
+      <c r="H44" s="43">
+        <v>4</v>
+      </c>
+      <c r="I44" s="46">
+        <v>0</v>
+      </c>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48">
+        <v>2</v>
+      </c>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48">
+        <v>2</v>
+      </c>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="50"/>
+    </row>
+    <row r="45" spans="1:28" s="51" customFormat="1">
+      <c r="A45" s="12">
+        <v>43</v>
+      </c>
+      <c r="B45" s="43">
         <v>22</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="41"/>
-    </row>
-    <row r="45" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="C45" s="43"/>
+      <c r="D45" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="43">
+        <v>3</v>
+      </c>
+      <c r="H45" s="43">
+        <v>3</v>
+      </c>
+      <c r="I45" s="46">
+        <v>0</v>
+      </c>
+      <c r="J45" s="47"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48">
+        <v>1</v>
+      </c>
+      <c r="W45" s="48">
+        <v>2</v>
+      </c>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="50"/>
+    </row>
+    <row r="46" spans="1:28" s="51" customFormat="1">
+      <c r="A46" s="12">
+        <v>44</v>
+      </c>
+      <c r="B46" s="43">
         <v>23</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="41"/>
-    </row>
-    <row r="46" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="C46" s="43"/>
+      <c r="D46" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="43">
+        <v>2</v>
+      </c>
+      <c r="H46" s="43">
+        <v>2</v>
+      </c>
+      <c r="I46" s="46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="47"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48">
+        <v>1</v>
+      </c>
+      <c r="W46" s="48"/>
+      <c r="X46" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="48"/>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="50"/>
+    </row>
+    <row r="47" spans="1:28" s="51" customFormat="1">
+      <c r="A47" s="12">
+        <v>45</v>
+      </c>
+      <c r="B47" s="43">
         <v>24</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="41"/>
-    </row>
-    <row r="47" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="C47" s="43"/>
+      <c r="D47" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="43">
+        <v>2</v>
+      </c>
+      <c r="H47" s="43">
+        <v>2</v>
+      </c>
+      <c r="I47" s="46">
+        <v>0</v>
+      </c>
+      <c r="J47" s="47"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="48">
+        <v>2</v>
+      </c>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="48"/>
+      <c r="Z47" s="48"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="50"/>
+    </row>
+    <row r="48" spans="1:28" s="51" customFormat="1">
+      <c r="A48" s="12">
+        <v>46</v>
+      </c>
+      <c r="B48" s="43">
         <v>25</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="41"/>
-    </row>
-    <row r="48" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="43">
+        <v>3</v>
+      </c>
+      <c r="H48" s="43">
+        <v>3</v>
+      </c>
+      <c r="I48" s="46">
+        <v>0</v>
+      </c>
+      <c r="J48" s="47"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48">
+        <v>2</v>
+      </c>
+      <c r="X48" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="50"/>
+    </row>
+    <row r="49" spans="1:28" s="51" customFormat="1">
+      <c r="A49" s="12">
+        <v>47</v>
+      </c>
+      <c r="B49" s="43">
         <v>26</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="41"/>
-    </row>
-    <row r="49" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>27</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="41"/>
-    </row>
-    <row r="50" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="43"/>
+      <c r="D49" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" s="43">
+        <v>3</v>
+      </c>
+      <c r="H49" s="43">
+        <v>3</v>
+      </c>
+      <c r="I49" s="46">
+        <v>0</v>
+      </c>
+      <c r="J49" s="47"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="48"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="50"/>
+    </row>
+    <row r="50" spans="1:28" s="51" customFormat="1" ht="63.75">
       <c r="A50" s="12">
-        <v>28</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="41"/>
-    </row>
-    <row r="51" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="43">
+        <v>8</v>
+      </c>
+      <c r="H50" s="45">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I50" s="46">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J50" s="47"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="48">
+        <v>1</v>
+      </c>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="48"/>
+      <c r="Z50" s="48">
+        <v>2</v>
+      </c>
+      <c r="AA50" s="49">
+        <v>3</v>
+      </c>
+      <c r="AB50" s="50"/>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="12">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
+      <c r="D51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="F51" s="14"/>
-      <c r="G51" s="13"/>
+      <c r="G51" s="13">
+        <v>2</v>
+      </c>
       <c r="H51" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="H51:H64" si="4">IF((G51&lt;SUM(J51:AA51)),SUM(J51:AA51),G51)</f>
+        <v>2</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I51:I64" si="5">IF((H51&gt;G51),($H51-(SUM($J51:$AA51))),($G51-(SUM($J51:$AA51))))</f>
         <v>0</v>
       </c>
       <c r="J51" s="20"/>
@@ -4125,12 +4405,14 @@
       <c r="X51" s="21"/>
       <c r="Y51" s="21"/>
       <c r="Z51" s="21"/>
-      <c r="AA51" s="22"/>
+      <c r="AA51" s="22">
+        <v>2</v>
+      </c>
       <c r="AB51" s="41"/>
     </row>
-    <row r="52" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" hidden="1">
       <c r="A52" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -4166,693 +4448,1169 @@
       <c r="AA52" s="22"/>
       <c r="AB52" s="41"/>
     </row>
-    <row r="53" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24" t="s">
+    <row r="53" spans="1:28" hidden="1">
+      <c r="A53" s="12">
+        <v>19</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="20"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="41"/>
+    </row>
+    <row r="54" spans="1:28" hidden="1">
+      <c r="A54" s="12">
+        <v>20</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="20"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="41"/>
+    </row>
+    <row r="55" spans="1:28" hidden="1">
+      <c r="A55" s="12">
+        <v>21</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="20"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="41"/>
+    </row>
+    <row r="56" spans="1:28" hidden="1">
+      <c r="A56" s="12">
+        <v>22</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="20"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="41"/>
+    </row>
+    <row r="57" spans="1:28" hidden="1">
+      <c r="A57" s="12">
+        <v>23</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="41"/>
+    </row>
+    <row r="58" spans="1:28" hidden="1">
+      <c r="A58" s="12">
+        <v>24</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="20"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="41"/>
+    </row>
+    <row r="59" spans="1:28" hidden="1">
+      <c r="A59" s="12">
+        <v>25</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="20"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="41"/>
+    </row>
+    <row r="60" spans="1:28" hidden="1">
+      <c r="A60" s="12">
+        <v>26</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="20"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
+      <c r="X60" s="21"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="41"/>
+    </row>
+    <row r="61" spans="1:28" hidden="1">
+      <c r="A61" s="12">
+        <v>27</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="20"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="41"/>
+    </row>
+    <row r="62" spans="1:28" hidden="1">
+      <c r="A62" s="12">
+        <v>28</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="20"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+      <c r="X62" s="21"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="41"/>
+    </row>
+    <row r="63" spans="1:28" hidden="1">
+      <c r="A63" s="12">
+        <v>29</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="20"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="41"/>
+    </row>
+    <row r="64" spans="1:28" hidden="1">
+      <c r="A64" s="12">
+        <v>30</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="41"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" s="12"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26">
-        <f>SUM(G3:G52)</f>
-        <v>143</v>
-      </c>
-      <c r="H53" s="27">
-        <f>SUM(H3:H52)</f>
-        <v>148</v>
-      </c>
-      <c r="I53" s="27">
-        <f>SUM(I3:I52)</f>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26">
+        <f>SUM(G3:G64)</f>
+        <v>193</v>
+      </c>
+      <c r="H65" s="27">
+        <f>SUM(H3:H64)</f>
+        <v>198</v>
+      </c>
+      <c r="I65" s="27">
+        <f>SUM(I3:I64)</f>
         <v>3</v>
       </c>
-      <c r="J53" s="28">
-        <f t="shared" ref="J53:AA53" si="6">SUM(J3:J39)</f>
+      <c r="J65" s="28">
+        <f t="shared" ref="J65:AA65" si="6">SUM(J3:J51)</f>
         <v>3</v>
       </c>
-      <c r="K53" s="28">
+      <c r="K65" s="28">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="L53" s="28">
+      <c r="L65" s="28">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M53" s="28">
+      <c r="M65" s="28">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="N53" s="28">
+      <c r="N65" s="28">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O53" s="28">
+      <c r="O65" s="28">
         <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="P53" s="28">
+        <v>10</v>
+      </c>
+      <c r="P65" s="28">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Q53" s="28">
+      <c r="Q65" s="28">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="R53" s="28">
+        <v>10</v>
+      </c>
+      <c r="R65" s="28">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="S53" s="28">
+        <v>11</v>
+      </c>
+      <c r="S65" s="28">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="T65" s="28">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="U65" s="28">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V65" s="28">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="W65" s="28">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X65" s="28">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="T53" s="28">
+      <c r="Y65" s="28">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="U53" s="28">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="V53" s="28">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="W53" s="28">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="X53" s="28">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="Y53" s="28">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="Z53" s="28">
+        <v>12</v>
+      </c>
+      <c r="Z65" s="28">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="AA53" s="28">
+      <c r="AA65" s="28">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30" t="s">
+    <row r="66" spans="1:27" ht="12" customHeight="1">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32">
-        <f>G53-SUM(J54:AA54)</f>
-        <v>64</v>
-      </c>
-      <c r="H54" s="33"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="7">
+      <c r="F66" s="31"/>
+      <c r="G66" s="32">
+        <f>G65-SUM(J66:AA66)</f>
+        <v>114</v>
+      </c>
+      <c r="H66" s="33"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="7">
         <v>5</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K66" s="7">
         <v>4</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L66" s="7">
         <v>5</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M66" s="7">
         <v>4</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N66" s="7">
         <v>5</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O66" s="7">
         <v>4</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P66" s="7">
         <v>5</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q66" s="7">
         <v>4</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R66" s="7">
         <v>5</v>
       </c>
-      <c r="S54" s="7">
+      <c r="S66" s="7">
         <v>4</v>
       </c>
-      <c r="T54" s="7">
+      <c r="T66" s="7">
         <v>4</v>
       </c>
-      <c r="U54" s="7">
+      <c r="U66" s="7">
         <v>5</v>
       </c>
-      <c r="V54" s="7">
+      <c r="V66" s="7">
         <v>4</v>
       </c>
-      <c r="W54" s="7">
+      <c r="W66" s="7">
         <v>4</v>
       </c>
-      <c r="X54" s="7">
+      <c r="X66" s="7">
         <v>4</v>
       </c>
-      <c r="Y54" s="7">
+      <c r="Y66" s="7">
         <v>5</v>
       </c>
-      <c r="Z54" s="7">
+      <c r="Z66" s="7">
         <v>4</v>
       </c>
-      <c r="AA54" s="7">
+      <c r="AA66" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="36" t="s">
+    <row r="67" spans="1:27" ht="12" customHeight="1">
+      <c r="E67" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="38" t="s">
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="37">
-        <f>G53</f>
-        <v>143</v>
-      </c>
-      <c r="J55" s="39">
-        <f t="shared" ref="J55:AA55" si="7">I55-J54</f>
-        <v>138</v>
-      </c>
-      <c r="K55" s="39">
+      <c r="I67" s="37">
+        <f>G65</f>
+        <v>193</v>
+      </c>
+      <c r="J67" s="39">
+        <f t="shared" ref="J67:AA67" si="7">I67-J66</f>
+        <v>188</v>
+      </c>
+      <c r="K67" s="39">
         <f t="shared" si="7"/>
-        <v>134</v>
-      </c>
-      <c r="L55" s="39">
+        <v>184</v>
+      </c>
+      <c r="L67" s="39">
         <f t="shared" si="7"/>
-        <v>129</v>
-      </c>
-      <c r="M55" s="39">
+        <v>179</v>
+      </c>
+      <c r="M67" s="39">
         <f t="shared" si="7"/>
-        <v>125</v>
-      </c>
-      <c r="N55" s="39">
+        <v>175</v>
+      </c>
+      <c r="N67" s="39">
         <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="O55" s="39">
+        <v>170</v>
+      </c>
+      <c r="O67" s="39">
         <f t="shared" si="7"/>
-        <v>116</v>
-      </c>
-      <c r="P55" s="39">
+        <v>166</v>
+      </c>
+      <c r="P67" s="39">
         <f t="shared" si="7"/>
-        <v>111</v>
-      </c>
-      <c r="Q55" s="39">
+        <v>161</v>
+      </c>
+      <c r="Q67" s="39">
         <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
-      <c r="R55" s="39">
+        <v>157</v>
+      </c>
+      <c r="R67" s="39">
         <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-      <c r="S55" s="39">
+        <v>152</v>
+      </c>
+      <c r="S67" s="39">
         <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-      <c r="T55" s="39">
+        <v>148</v>
+      </c>
+      <c r="T67" s="39">
         <f t="shared" si="7"/>
-        <v>94</v>
-      </c>
-      <c r="U55" s="39">
+        <v>144</v>
+      </c>
+      <c r="U67" s="39">
         <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="V55" s="39">
+        <v>139</v>
+      </c>
+      <c r="V67" s="39">
         <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="W55" s="39">
+        <v>135</v>
+      </c>
+      <c r="W67" s="39">
         <f t="shared" si="7"/>
-        <v>81</v>
-      </c>
-      <c r="X55" s="39">
+        <v>131</v>
+      </c>
+      <c r="X67" s="39">
         <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-      <c r="Y55" s="39">
+        <v>127</v>
+      </c>
+      <c r="Y67" s="39">
         <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="Z55" s="39">
-        <f>Y55-Z54</f>
-        <v>68</v>
-      </c>
-      <c r="AA55" s="39">
+        <v>122</v>
+      </c>
+      <c r="Z67" s="39">
+        <f>Y67-Z66</f>
+        <v>118</v>
+      </c>
+      <c r="AA67" s="39">
         <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="12" customHeight="1">
+      <c r="E68" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="38" t="s">
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="37">
-        <f>H53</f>
-        <v>148</v>
-      </c>
-      <c r="J56" s="37">
-        <f>$H$53-SUM(J$3:J$52)</f>
-        <v>145</v>
-      </c>
-      <c r="K56" s="37">
-        <f t="shared" ref="K56:AA56" si="8">J56-SUM(K3:K52)</f>
-        <v>141</v>
-      </c>
-      <c r="L56" s="37">
+      <c r="I68" s="37">
+        <f>H65</f>
+        <v>198</v>
+      </c>
+      <c r="J68" s="37">
+        <f>$H$65-SUM(J$3:J$64)</f>
+        <v>195</v>
+      </c>
+      <c r="K68" s="37">
+        <f t="shared" ref="K68:AA68" si="8">J68-SUM(K3:K64)</f>
+        <v>191</v>
+      </c>
+      <c r="L68" s="37">
         <f t="shared" si="8"/>
-        <v>137</v>
-      </c>
-      <c r="M56" s="37">
+        <v>187</v>
+      </c>
+      <c r="M68" s="37">
         <f t="shared" si="8"/>
-        <v>133</v>
-      </c>
-      <c r="N56" s="37">
+        <v>183</v>
+      </c>
+      <c r="N68" s="37">
         <f t="shared" si="8"/>
-        <v>132</v>
-      </c>
-      <c r="O56" s="37">
+        <v>182</v>
+      </c>
+      <c r="O68" s="37">
         <f t="shared" si="8"/>
-        <v>123</v>
-      </c>
-      <c r="P56" s="37">
+        <v>172</v>
+      </c>
+      <c r="P68" s="37">
         <f t="shared" si="8"/>
-        <v>111</v>
-      </c>
-      <c r="Q56" s="37">
+        <v>160</v>
+      </c>
+      <c r="Q68" s="37">
         <f t="shared" si="8"/>
-        <v>103</v>
-      </c>
-      <c r="R56" s="37">
+        <v>150</v>
+      </c>
+      <c r="R68" s="37">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="S56" s="37">
+        <v>139</v>
+      </c>
+      <c r="S68" s="37">
         <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="T56" s="37">
+        <v>122</v>
+      </c>
+      <c r="T68" s="37">
         <f t="shared" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="U56" s="37">
+        <v>105</v>
+      </c>
+      <c r="U68" s="37">
         <f t="shared" si="8"/>
-        <v>59</v>
-      </c>
-      <c r="V56" s="37">
+        <v>88</v>
+      </c>
+      <c r="V68" s="37">
         <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-      <c r="W56" s="37">
+        <v>66</v>
+      </c>
+      <c r="W68" s="37">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="X56" s="37">
+        <v>49</v>
+      </c>
+      <c r="X68" s="37">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="Y56" s="37">
+        <v>35</v>
+      </c>
+      <c r="Y68" s="37">
         <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="Z56" s="37">
+        <v>23</v>
+      </c>
+      <c r="Z68" s="37">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AA56" s="37">
+        <v>12</v>
+      </c>
+      <c r="AA68" s="37">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-    </row>
-    <row r="58" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-    </row>
-    <row r="59" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="12" customHeight="1">
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+      <c r="AA70" s="35"/>
+    </row>
+    <row r="71" spans="1:27">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:6">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:6">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:6">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:6">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:6">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:6">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:6">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:6">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:6">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:6">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:6">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:6">
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:6">
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:6">
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:6">
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:6">
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:6">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:6">
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
+    <row r="120" spans="5:6">
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="5:6">
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="5:6">
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="5:6">
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="5:6">
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="5:6">
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="5:6">
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="5:6">
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="5:6">
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="5:6">
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="5:6">
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="5:6">
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
   </mergeCells>
-  <conditionalFormatting sqref="E55:E56 H55:AA56">
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E67:E68 H67:AA68">
+    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I15 I39:I52">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="I3:I15 I51:I64">
+    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F54 I54">
-    <cfRule type="cellIs" dxfId="7" priority="10" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E66:F66 I66">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:AA15 J39:AA52">
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="J3:AA15 J51:AA64">
+    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55:G56">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F67:G68">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I38">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="I16:I50">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:AA38">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="J16:AA50">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I28">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:AA28">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I49">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:AA49">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/Agile Project Management -Backlog.xlsx
+++ b/Documents/Agile Project Management -Backlog.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Cava\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="16980" windowHeight="5430"/>
+    <workbookView xWindow="276" yWindow="516" windowWidth="16980" windowHeight="5436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1130,49 +1135,49 @@
                   <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,11 +1191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95000448"/>
-        <c:axId val="95002624"/>
+        <c:axId val="-511603936"/>
+        <c:axId val="-511613728"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="95000448"/>
+        <c:axId val="-511603936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1224,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95002624"/>
+        <c:crossAx val="-511613728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1227,7 +1232,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95002624"/>
+        <c:axId val="-511613728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95000448"/>
+        <c:crossAx val="-511603936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1367,7 +1372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1402,7 +1407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1617,27 +1622,27 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" style="11" customWidth="1"/>
     <col min="9" max="9" width="4" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="11" customWidth="1"/>
-    <col min="11" max="27" width="4.5703125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="11" customWidth="1"/>
+    <col min="11" max="27" width="4.5546875" style="11" customWidth="1"/>
     <col min="28" max="28" width="34" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="17.140625" style="11"/>
+    <col min="29" max="16384" width="17.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="57.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1724,7 +1729,7 @@
       </c>
       <c r="AC1" s="40"/>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1753,7 +1758,7 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1805,7 +1810,7 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="42"/>
     </row>
-    <row r="4" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1859,7 +1864,7 @@
       <c r="AA4" s="22"/>
       <c r="AB4" s="41"/>
     </row>
-    <row r="5" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1885,7 +1890,7 @@
       </c>
       <c r="I5" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="20"/>
       <c r="K5" s="21">
@@ -1894,7 +1899,9 @@
       <c r="L5" s="21">
         <v>1</v>
       </c>
-      <c r="M5" s="21"/>
+      <c r="M5" s="21">
+        <v>1</v>
+      </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
@@ -1911,7 +1918,7 @@
       <c r="AA5" s="22"/>
       <c r="AB5" s="41"/>
     </row>
-    <row r="6" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1967,7 +1974,7 @@
       <c r="AA6" s="22"/>
       <c r="AB6" s="41"/>
     </row>
-    <row r="7" spans="1:29" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2019,7 +2026,7 @@
       <c r="AA7" s="22"/>
       <c r="AB7" s="41"/>
     </row>
-    <row r="8" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2073,7 +2080,7 @@
       <c r="AA8" s="22"/>
       <c r="AB8" s="41"/>
     </row>
-    <row r="9" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2125,7 +2132,7 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="41"/>
     </row>
-    <row r="10" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2177,7 +2184,7 @@
       <c r="AA10" s="22"/>
       <c r="AB10" s="41"/>
     </row>
-    <row r="11" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2233,7 +2240,7 @@
       <c r="AA11" s="22"/>
       <c r="AB11" s="41"/>
     </row>
-    <row r="12" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2284,7 +2291,7 @@
       <c r="AA12" s="22"/>
       <c r="AB12" s="41"/>
     </row>
-    <row r="13" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2335,7 +2342,7 @@
       <c r="AA13" s="22"/>
       <c r="AB13" s="41"/>
     </row>
-    <row r="14" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2386,7 +2393,7 @@
       <c r="AA14" s="22"/>
       <c r="AB14" s="41"/>
     </row>
-    <row r="15" spans="1:29" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2437,7 +2444,7 @@
       <c r="AA15" s="22"/>
       <c r="AB15" s="41"/>
     </row>
-    <row r="16" spans="1:29" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -2489,7 +2496,7 @@
       <c r="AA16" s="49"/>
       <c r="AB16" s="50"/>
     </row>
-    <row r="17" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" s="51" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -2539,7 +2546,7 @@
       <c r="AA17" s="49"/>
       <c r="AB17" s="50"/>
     </row>
-    <row r="18" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -2591,7 +2598,7 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
     </row>
-    <row r="19" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -2641,7 +2648,7 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="50"/>
     </row>
-    <row r="20" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -2693,7 +2700,7 @@
       <c r="AA20" s="49"/>
       <c r="AB20" s="50"/>
     </row>
-    <row r="21" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -2745,7 +2752,7 @@
       <c r="AA21" s="49"/>
       <c r="AB21" s="50"/>
     </row>
-    <row r="22" spans="1:28" s="51" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" s="51" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -2799,7 +2806,7 @@
       <c r="AA22" s="49"/>
       <c r="AB22" s="50"/>
     </row>
-    <row r="23" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -2851,7 +2858,7 @@
       <c r="AA23" s="49"/>
       <c r="AB23" s="50"/>
     </row>
-    <row r="24" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -2901,7 +2908,7 @@
       <c r="AA24" s="49"/>
       <c r="AB24" s="50"/>
     </row>
-    <row r="25" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -2951,7 +2958,7 @@
       <c r="AA25" s="49"/>
       <c r="AB25" s="50"/>
     </row>
-    <row r="26" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -3005,7 +3012,7 @@
       <c r="AA26" s="49"/>
       <c r="AB26" s="50"/>
     </row>
-    <row r="27" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -3056,7 +3063,7 @@
       <c r="AA27" s="49"/>
       <c r="AB27" s="50"/>
     </row>
-    <row r="28" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -3107,7 +3114,7 @@
       <c r="AA28" s="49"/>
       <c r="AB28" s="50"/>
     </row>
-    <row r="29" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -3158,7 +3165,7 @@
       <c r="AA29" s="49"/>
       <c r="AB29" s="50"/>
     </row>
-    <row r="30" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -3209,7 +3216,7 @@
       <c r="AA30" s="49"/>
       <c r="AB30" s="50"/>
     </row>
-    <row r="31" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -3259,7 +3266,7 @@
       <c r="AA31" s="49"/>
       <c r="AB31" s="50"/>
     </row>
-    <row r="32" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -3309,7 +3316,7 @@
       <c r="AA32" s="49"/>
       <c r="AB32" s="50"/>
     </row>
-    <row r="33" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -3359,7 +3366,7 @@
       <c r="AA33" s="49"/>
       <c r="AB33" s="50"/>
     </row>
-    <row r="34" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -3411,7 +3418,7 @@
       <c r="AA34" s="49"/>
       <c r="AB34" s="50"/>
     </row>
-    <row r="35" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -3461,7 +3468,7 @@
       <c r="AA35" s="49"/>
       <c r="AB35" s="50"/>
     </row>
-    <row r="36" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -3513,7 +3520,7 @@
       <c r="AA36" s="49"/>
       <c r="AB36" s="50"/>
     </row>
-    <row r="37" spans="1:28" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
@@ -3567,7 +3574,7 @@
       <c r="AA37" s="49"/>
       <c r="AB37" s="50"/>
     </row>
-    <row r="38" spans="1:28" s="51" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" s="51" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -3619,7 +3626,7 @@
       </c>
       <c r="AB38" s="50"/>
     </row>
-    <row r="39" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
@@ -3665,7 +3672,7 @@
       </c>
       <c r="AB39" s="41"/>
     </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>18</v>
       </c>
@@ -3703,7 +3710,7 @@
       <c r="AA40" s="22"/>
       <c r="AB40" s="41"/>
     </row>
-    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>19</v>
       </c>
@@ -3741,7 +3748,7 @@
       <c r="AA41" s="22"/>
       <c r="AB41" s="41"/>
     </row>
-    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>20</v>
       </c>
@@ -3779,7 +3786,7 @@
       <c r="AA42" s="22"/>
       <c r="AB42" s="41"/>
     </row>
-    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>21</v>
       </c>
@@ -3817,7 +3824,7 @@
       <c r="AA43" s="22"/>
       <c r="AB43" s="41"/>
     </row>
-    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>22</v>
       </c>
@@ -3855,7 +3862,7 @@
       <c r="AA44" s="22"/>
       <c r="AB44" s="41"/>
     </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>23</v>
       </c>
@@ -3893,7 +3900,7 @@
       <c r="AA45" s="22"/>
       <c r="AB45" s="41"/>
     </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>24</v>
       </c>
@@ -3931,7 +3938,7 @@
       <c r="AA46" s="22"/>
       <c r="AB46" s="41"/>
     </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>25</v>
       </c>
@@ -3969,7 +3976,7 @@
       <c r="AA47" s="22"/>
       <c r="AB47" s="41"/>
     </row>
-    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>26</v>
       </c>
@@ -4007,7 +4014,7 @@
       <c r="AA48" s="22"/>
       <c r="AB48" s="41"/>
     </row>
-    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>27</v>
       </c>
@@ -4045,7 +4052,7 @@
       <c r="AA49" s="22"/>
       <c r="AB49" s="41"/>
     </row>
-    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>28</v>
       </c>
@@ -4083,7 +4090,7 @@
       <c r="AA50" s="22"/>
       <c r="AB50" s="41"/>
     </row>
-    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>29</v>
       </c>
@@ -4121,7 +4128,7 @@
       <c r="AA51" s="22"/>
       <c r="AB51" s="41"/>
     </row>
-    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>30</v>
       </c>
@@ -4159,7 +4166,7 @@
       <c r="AA52" s="22"/>
       <c r="AB52" s="41"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -4178,7 +4185,7 @@
       </c>
       <c r="I53" s="27">
         <f>SUM(I3:I52)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J53" s="28">
         <f t="shared" ref="J53:AA53" si="6">SUM(J3:J39)</f>
@@ -4194,7 +4201,7 @@
       </c>
       <c r="M53" s="28">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53" s="28">
         <f t="shared" si="6"/>
@@ -4253,7 +4260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -4323,7 +4330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="36" t="s">
         <v>10</v>
       </c>
@@ -4409,7 +4416,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="36" t="s">
         <v>12</v>
       </c>
@@ -4436,66 +4443,66 @@
       </c>
       <c r="M56" s="37">
         <f t="shared" si="8"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N56" s="37">
         <f t="shared" si="8"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O56" s="37">
         <f t="shared" si="8"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P56" s="37">
         <f t="shared" si="8"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q56" s="37">
         <f t="shared" si="8"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R56" s="37">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S56" s="37">
         <f t="shared" si="8"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T56" s="37">
         <f t="shared" si="8"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U56" s="37">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V56" s="37">
         <f t="shared" si="8"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W56" s="37">
         <f t="shared" si="8"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X56" s="37">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y56" s="37">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z56" s="37">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA56" s="37">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
@@ -4519,7 +4526,7 @@
       <c r="Z57" s="35"/>
       <c r="AA57" s="35"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E58" s="53"/>
       <c r="F58" s="53"/>
       <c r="G58" s="53"/>
@@ -4543,247 +4550,247 @@
       <c r="Z58" s="35"/>
       <c r="AA58" s="35"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>

--- a/Documents/Agile Project Management -Backlog.xlsx
+++ b/Documents/Agile Project Management -Backlog.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\Cava\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="16980" windowHeight="5430"/>
+    <workbookView xWindow="276" yWindow="516" windowWidth="16980" windowHeight="5436"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="125">
   <si>
     <t>Task</t>
   </si>
@@ -369,13 +374,58 @@
   </si>
   <si>
     <t>Testing 21</t>
+  </si>
+  <si>
+    <t>SearchManager</t>
+  </si>
+  <si>
+    <t>SearchManager1</t>
+  </si>
+  <si>
+    <t>Optimize Search path</t>
+  </si>
+  <si>
+    <t>Testing 22</t>
+  </si>
+  <si>
+    <t>KMLManager1</t>
+  </si>
+  <si>
+    <t>User/Admmin</t>
+  </si>
+  <si>
+    <t>KMLManager</t>
+  </si>
+  <si>
+    <t>Opens Google earth</t>
+  </si>
+  <si>
+    <t>Draws Shortest Path on Map</t>
+  </si>
+  <si>
+    <t>Validates Location</t>
+  </si>
+  <si>
+    <t>KMLManager2</t>
+  </si>
+  <si>
+    <t>KMLManager3</t>
+  </si>
+  <si>
+    <t>Testing 23</t>
+  </si>
+  <si>
+    <t>Testing 24</t>
+  </si>
+  <si>
+    <t>Testing 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -787,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -944,12 +994,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -968,11 +1012,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="73">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1015,6 +1068,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF6600"/>
       </font>
@@ -1025,13 +1085,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF6600"/>
       </font>
@@ -1042,9 +1095,341 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF008000"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1127,6 +1512,134 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF003366"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1160,8 +1673,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1174,7 +1696,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$68</c:f>
+              <c:f>Sheet1!$H$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,143 +1719,150 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$67:$AA$67</c:f>
+              <c:f>Sheet1!$I$75:$AA$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>179</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>175</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>157</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>152</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>139</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>135</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>127</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$68:$AA$68</c:f>
+              <c:f>Sheet1!$I$76:$AA$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>191</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>139</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>88</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="109433600"/>
-        <c:axId val="109435520"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1275198256"/>
+        <c:axId val="-1275197168"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="109433600"/>
+        <c:axId val="-1275198256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,12 +1885,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="109435520"/>
+        <c:crossAx val="-1275197168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1369,10 +1899,11 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109435520"/>
+        <c:axId val="-1275197168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1392,6 +1923,7 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
@@ -1412,7 +1944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109433600"/>
+        <c:crossAx val="-1275198256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1420,6 +1952,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -1439,7 +1972,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5562600" cy="3190874"/>
@@ -1464,7 +1997,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1506,7 +2039,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1538,9 +2071,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1572,6 +2106,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1747,34 +2282,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="V57" sqref="V57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" style="11" customWidth="1"/>
     <col min="9" max="9" width="4" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="11" customWidth="1"/>
-    <col min="11" max="27" width="4.5703125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" style="11" customWidth="1"/>
+    <col min="11" max="27" width="4.5546875" style="11" customWidth="1"/>
     <col min="28" max="28" width="34" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="17.140625" style="11"/>
+    <col min="29" max="16384" width="17.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="59.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +2396,7 @@
       </c>
       <c r="AC1" s="40"/>
     </row>
-    <row r="2" spans="1:29" hidden="1">
+    <row r="2" spans="1:29" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1890,7 +2425,7 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="76.5">
+    <row r="3" spans="1:29" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1942,7 +2477,7 @@
       <c r="AA3" s="19"/>
       <c r="AB3" s="42"/>
     </row>
-    <row r="4" spans="1:29" ht="63.75">
+    <row r="4" spans="1:29" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1996,7 +2531,7 @@
       <c r="AA4" s="22"/>
       <c r="AB4" s="41"/>
     </row>
-    <row r="5" spans="1:29" ht="51">
+    <row r="5" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2050,7 +2585,7 @@
       <c r="AA5" s="22"/>
       <c r="AB5" s="41"/>
     </row>
-    <row r="6" spans="1:29" ht="63.75">
+    <row r="6" spans="1:29" ht="66" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2106,7 +2641,7 @@
       <c r="AA6" s="22"/>
       <c r="AB6" s="41"/>
     </row>
-    <row r="7" spans="1:29" ht="63.75">
+    <row r="7" spans="1:29" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2132,10 +2667,12 @@
       </c>
       <c r="I7" s="16">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21">
         <v>1</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
       <c r="L7" s="21">
         <v>1</v>
       </c>
@@ -2158,7 +2695,7 @@
       <c r="AA7" s="22"/>
       <c r="AB7" s="41"/>
     </row>
-    <row r="8" spans="1:29" ht="51">
+    <row r="8" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2212,7 +2749,7 @@
       <c r="AA8" s="22"/>
       <c r="AB8" s="41"/>
     </row>
-    <row r="9" spans="1:29" ht="51">
+    <row r="9" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2264,7 +2801,7 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="41"/>
     </row>
-    <row r="10" spans="1:29" ht="51">
+    <row r="10" spans="1:29" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2316,7 +2853,7 @@
       <c r="AA10" s="22"/>
       <c r="AB10" s="41"/>
     </row>
-    <row r="11" spans="1:29" ht="38.25">
+    <row r="11" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2372,7 +2909,7 @@
       <c r="AA11" s="22"/>
       <c r="AB11" s="41"/>
     </row>
-    <row r="12" spans="1:29" ht="25.5">
+    <row r="12" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2423,7 +2960,7 @@
       <c r="AA12" s="22"/>
       <c r="AB12" s="41"/>
     </row>
-    <row r="13" spans="1:29" ht="38.25">
+    <row r="13" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2474,7 +3011,7 @@
       <c r="AA13" s="22"/>
       <c r="AB13" s="41"/>
     </row>
-    <row r="14" spans="1:29" ht="25.5">
+    <row r="14" spans="1:29" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2525,7 +3062,7 @@
       <c r="AA14" s="22"/>
       <c r="AB14" s="41"/>
     </row>
-    <row r="15" spans="1:29" ht="38.25">
+    <row r="15" spans="1:29" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2576,7 +3113,7 @@
       <c r="AA15" s="22"/>
       <c r="AB15" s="41"/>
     </row>
-    <row r="16" spans="1:29" s="51" customFormat="1" ht="25.5">
+    <row r="16" spans="1:29" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -2628,7 +3165,7 @@
       <c r="AA16" s="49"/>
       <c r="AB16" s="50"/>
     </row>
-    <row r="17" spans="1:28" s="51" customFormat="1" ht="38.25">
+    <row r="17" spans="1:28" s="51" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -2678,7 +3215,7 @@
       <c r="AA17" s="49"/>
       <c r="AB17" s="50"/>
     </row>
-    <row r="18" spans="1:28" s="51" customFormat="1" ht="25.5">
+    <row r="18" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -2730,7 +3267,7 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="50"/>
     </row>
-    <row r="19" spans="1:28" s="51" customFormat="1" ht="25.5">
+    <row r="19" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -2780,7 +3317,7 @@
       <c r="AA19" s="49"/>
       <c r="AB19" s="50"/>
     </row>
-    <row r="20" spans="1:28" s="51" customFormat="1" ht="25.5">
+    <row r="20" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -2832,7 +3369,7 @@
       <c r="AA20" s="49"/>
       <c r="AB20" s="50"/>
     </row>
-    <row r="21" spans="1:28" s="51" customFormat="1" ht="25.5">
+    <row r="21" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -2884,7 +3421,7 @@
       <c r="AA21" s="49"/>
       <c r="AB21" s="50"/>
     </row>
-    <row r="22" spans="1:28" s="51" customFormat="1" ht="39" customHeight="1">
+    <row r="22" spans="1:28" s="51" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -2938,7 +3475,7 @@
       <c r="AA22" s="49"/>
       <c r="AB22" s="50"/>
     </row>
-    <row r="23" spans="1:28" s="51" customFormat="1" ht="25.5">
+    <row r="23" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -2969,7 +3506,7 @@
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
       <c r="N23" s="48"/>
-      <c r="O23" s="54">
+      <c r="O23" s="52">
         <v>1</v>
       </c>
       <c r="P23" s="48"/>
@@ -2992,15 +3529,15 @@
       <c r="AA23" s="49"/>
       <c r="AB23" s="50"/>
     </row>
-    <row r="24" spans="1:28" s="51" customFormat="1" ht="38.25">
+    <row r="24" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
       <c r="B24" s="43"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="53" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="44" t="s">
@@ -3044,15 +3581,15 @@
       <c r="AA24" s="49"/>
       <c r="AB24" s="50"/>
     </row>
-    <row r="25" spans="1:28" s="51" customFormat="1" ht="25.5">
+    <row r="25" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
       <c r="B25" s="43"/>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="53" t="s">
         <v>92</v>
       </c>
       <c r="E25" s="44" t="s">
@@ -3096,15 +3633,15 @@
       <c r="AA25" s="49"/>
       <c r="AB25" s="50"/>
     </row>
-    <row r="26" spans="1:28" s="51" customFormat="1" ht="38.25">
+    <row r="26" spans="1:28" s="51" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
       <c r="B26" s="43"/>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="53" t="s">
         <v>92</v>
       </c>
       <c r="E26" s="44" t="s">
@@ -3150,15 +3687,15 @@
       <c r="AA26" s="49"/>
       <c r="AB26" s="50"/>
     </row>
-    <row r="27" spans="1:28" s="51" customFormat="1" ht="38.25">
+    <row r="27" spans="1:28" s="51" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="43"/>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="53" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="44" t="s">
@@ -3202,15 +3739,15 @@
       <c r="AA27" s="49"/>
       <c r="AB27" s="50"/>
     </row>
-    <row r="28" spans="1:28" s="59" customFormat="1" ht="25.5">
+    <row r="28" spans="1:28" s="57" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="53" t="s">
         <v>99</v>
       </c>
       <c r="E28" s="44" t="s">
@@ -3219,7 +3756,7 @@
       <c r="F28" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="55">
+      <c r="G28" s="53">
         <v>5</v>
       </c>
       <c r="H28" s="45">
@@ -3228,52 +3765,52 @@
       <c r="I28" s="46">
         <v>0</v>
       </c>
-      <c r="J28" s="56"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="58"/>
-    </row>
-    <row r="29" spans="1:28" s="51" customFormat="1">
+      <c r="J28" s="54"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="56"/>
+    </row>
+    <row r="29" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="43">
-        <v>6</v>
-      </c>
-      <c r="C29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43" t="s">
+        <v>110</v>
+      </c>
       <c r="D29" s="43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="G29" s="43">
-        <v>3</v>
-      </c>
-      <c r="H29" s="45">
-        <f t="shared" ref="H29:H50" si="2">IF((G29&lt;SUM(J29:AA29)),SUM(J29:AA29),G29)</f>
-        <v>3</v>
-      </c>
-      <c r="I29" s="46">
-        <f t="shared" ref="I29:I50" si="3">IF((H29&gt;G29),($H29-(SUM($J29:$AA29))),($G29-(SUM($J29:$AA29))))</f>
+        <v>7</v>
+      </c>
+      <c r="H29" s="60">
+        <f t="shared" ref="H29" si="2">IF((G29&lt;SUM(J29:AA29)),SUM(J29:AA29),G29)</f>
+        <v>7</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" ref="I29" si="3">IF((H29&gt;G29),($H29-(SUM($J29:$AA29))),($G29-(SUM($J29:$AA29))))</f>
         <v>0</v>
       </c>
       <c r="J29" s="47"/>
@@ -3285,49 +3822,43 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
       <c r="R29" s="48"/>
-      <c r="S29" s="48">
-        <v>2</v>
-      </c>
-      <c r="T29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48">
+        <v>3</v>
+      </c>
       <c r="U29" s="48"/>
       <c r="V29" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
+      <c r="X29" s="48">
+        <v>2</v>
+      </c>
       <c r="Y29" s="48"/>
       <c r="Z29" s="48"/>
       <c r="AA29" s="49"/>
       <c r="AB29" s="50"/>
     </row>
-    <row r="30" spans="1:28" s="51" customFormat="1">
+    <row r="30" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="43">
-        <v>7</v>
-      </c>
-      <c r="C30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43" t="s">
+        <v>116</v>
+      </c>
       <c r="D30" s="43" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="43">
-        <v>3</v>
-      </c>
-      <c r="H30" s="45">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I30" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="47"/>
       <c r="K30" s="48"/>
       <c r="L30" s="48"/>
@@ -3340,9 +3871,7 @@
       <c r="S30" s="48"/>
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
-      <c r="V30" s="48">
-        <v>4</v>
-      </c>
+      <c r="V30" s="48"/>
       <c r="W30" s="48"/>
       <c r="X30" s="48"/>
       <c r="Y30" s="48"/>
@@ -3350,34 +3879,26 @@
       <c r="AA30" s="49"/>
       <c r="AB30" s="50"/>
     </row>
-    <row r="31" spans="1:28" s="51" customFormat="1">
+    <row r="31" spans="1:28" s="51" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="43">
-        <v>8</v>
-      </c>
-      <c r="C31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
+        <v>116</v>
+      </c>
       <c r="D31" s="43" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="43">
-        <v>2</v>
-      </c>
-      <c r="H31" s="45">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="47"/>
       <c r="K31" s="48"/>
       <c r="L31" s="48"/>
@@ -3394,40 +3915,30 @@
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
-      <c r="Z31" s="48">
-        <v>2</v>
-      </c>
+      <c r="Z31" s="48"/>
       <c r="AA31" s="49"/>
       <c r="AB31" s="50"/>
     </row>
-    <row r="32" spans="1:28" s="51" customFormat="1">
+    <row r="32" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="43">
-        <v>9</v>
-      </c>
-      <c r="C32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43" t="s">
+        <v>116</v>
+      </c>
       <c r="D32" s="43" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="43">
-        <v>6</v>
-      </c>
-      <c r="H32" s="45">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="47"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
@@ -3442,31 +3953,25 @@
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
       <c r="W32" s="48"/>
-      <c r="X32" s="48">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="48">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="48">
-        <v>3</v>
-      </c>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
       <c r="AA32" s="49"/>
       <c r="AB32" s="50"/>
     </row>
-    <row r="33" spans="1:28" s="51" customFormat="1">
+    <row r="33" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
       <c r="B33" s="43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F33" s="44" t="s">
         <v>56</v>
@@ -3474,11 +3979,12 @@
       <c r="G33" s="43">
         <v>3</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="45">
+        <f t="shared" ref="H33:H58" si="4">IF((G33&lt;SUM(J33:AA33)),SUM(J33:AA33),G33)</f>
         <v>3</v>
       </c>
       <c r="I33" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I33:I58" si="5">IF((H33&gt;G33),($H33-(SUM($J33:$AA33))),($G33-(SUM($J33:$AA33))))</f>
         <v>0</v>
       </c>
       <c r="J33" s="47"/>
@@ -3488,16 +3994,16 @@
       <c r="N33" s="48"/>
       <c r="O33" s="48"/>
       <c r="P33" s="48"/>
-      <c r="Q33" s="48">
-        <v>2</v>
-      </c>
+      <c r="Q33" s="48"/>
       <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48">
+      <c r="S33" s="48">
+        <v>2</v>
+      </c>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48">
         <v>1</v>
       </c>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="48"/>
@@ -3505,31 +4011,32 @@
       <c r="AA33" s="49"/>
       <c r="AB33" s="50"/>
     </row>
-    <row r="34" spans="1:28" s="51" customFormat="1">
+    <row r="34" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="43">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F34" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G34" s="43">
-        <v>2</v>
-      </c>
-      <c r="H34" s="43">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H34" s="45">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="I34" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J34" s="47"/>
@@ -3537,18 +4044,16 @@
       <c r="L34" s="48"/>
       <c r="M34" s="48"/>
       <c r="N34" s="48"/>
-      <c r="O34" s="48">
-        <v>1</v>
-      </c>
+      <c r="O34" s="48"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
       <c r="R34" s="48"/>
-      <c r="S34" s="48">
-        <v>1</v>
-      </c>
+      <c r="S34" s="48"/>
       <c r="T34" s="48"/>
       <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
+      <c r="V34" s="48">
+        <v>4</v>
+      </c>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
@@ -3556,19 +4061,19 @@
       <c r="AA34" s="49"/>
       <c r="AB34" s="50"/>
     </row>
-    <row r="35" spans="1:28" s="51" customFormat="1">
+    <row r="35" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
       <c r="B35" s="43">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>56</v>
@@ -3576,11 +4081,12 @@
       <c r="G35" s="43">
         <v>2</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="45">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="I35" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J35" s="47"/>
@@ -3588,50 +4094,49 @@
       <c r="L35" s="48"/>
       <c r="M35" s="48"/>
       <c r="N35" s="48"/>
-      <c r="O35" s="48">
-        <v>1</v>
-      </c>
+      <c r="O35" s="48"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
       <c r="S35" s="48"/>
       <c r="T35" s="48"/>
-      <c r="U35" s="48">
-        <v>1</v>
-      </c>
+      <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
       <c r="X35" s="48"/>
       <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
+      <c r="Z35" s="48">
+        <v>2</v>
+      </c>
       <c r="AA35" s="49"/>
       <c r="AB35" s="50"/>
     </row>
-    <row r="36" spans="1:28" s="51" customFormat="1">
+    <row r="36" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="43">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F36" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G36" s="43">
-        <v>4</v>
-      </c>
-      <c r="H36" s="43">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="H36" s="45">
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="I36" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J36" s="47"/>
@@ -3640,40 +4145,42 @@
       <c r="M36" s="48"/>
       <c r="N36" s="48"/>
       <c r="O36" s="48"/>
-      <c r="P36" s="48">
-        <v>2</v>
-      </c>
+      <c r="P36" s="48"/>
       <c r="Q36" s="48"/>
-      <c r="R36" s="48">
-        <v>2</v>
-      </c>
+      <c r="R36" s="48"/>
       <c r="S36" s="48"/>
       <c r="T36" s="48"/>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
       <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
+      <c r="X36" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="48">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="48">
+        <v>3</v>
+      </c>
       <c r="AA36" s="49"/>
       <c r="AB36" s="50"/>
     </row>
-    <row r="37" spans="1:28" s="51" customFormat="1">
+    <row r="37" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="43">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G37" s="43">
         <v>3</v>
@@ -3682,6 +4189,7 @@
         <v>3</v>
       </c>
       <c r="I37" s="46">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J37" s="47"/>
@@ -3691,16 +4199,16 @@
       <c r="N37" s="48"/>
       <c r="O37" s="48"/>
       <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
+      <c r="Q37" s="48">
+        <v>2</v>
+      </c>
       <c r="R37" s="48"/>
-      <c r="S37" s="48">
-        <v>2</v>
-      </c>
-      <c r="T37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48">
+        <v>1</v>
+      </c>
       <c r="U37" s="48"/>
-      <c r="V37" s="48">
-        <v>1</v>
-      </c>
+      <c r="V37" s="48"/>
       <c r="W37" s="48"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="48"/>
@@ -3708,22 +4216,22 @@
       <c r="AA37" s="49"/>
       <c r="AB37" s="50"/>
     </row>
-    <row r="38" spans="1:28" s="51" customFormat="1">
+    <row r="38" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="43">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G38" s="43">
         <v>2</v>
@@ -3732,6 +4240,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="46">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J38" s="47"/>
@@ -3739,41 +4248,41 @@
       <c r="L38" s="48"/>
       <c r="M38" s="48"/>
       <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
+      <c r="O38" s="48">
+        <v>1</v>
+      </c>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48">
+      <c r="S38" s="48">
         <v>1</v>
       </c>
+      <c r="T38" s="48"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
-      <c r="W38" s="48">
-        <v>1</v>
-      </c>
+      <c r="W38" s="48"/>
       <c r="X38" s="48"/>
       <c r="Y38" s="48"/>
       <c r="Z38" s="48"/>
       <c r="AA38" s="49"/>
       <c r="AB38" s="50"/>
     </row>
-    <row r="39" spans="1:28" s="51" customFormat="1">
+    <row r="39" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="43">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G39" s="43">
         <v>2</v>
@@ -3782,6 +4291,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="46">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J39" s="47"/>
@@ -3789,49 +4299,50 @@
       <c r="L39" s="48"/>
       <c r="M39" s="48"/>
       <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
+      <c r="O39" s="48">
+        <v>1</v>
+      </c>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
-      <c r="S39" s="48">
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48">
         <v>1</v>
       </c>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
-      <c r="X39" s="48">
-        <v>1</v>
-      </c>
+      <c r="X39" s="48"/>
       <c r="Y39" s="48"/>
       <c r="Z39" s="48"/>
       <c r="AA39" s="49"/>
       <c r="AB39" s="50"/>
     </row>
-    <row r="40" spans="1:28" s="51" customFormat="1">
+    <row r="40" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G40" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="46">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J40" s="47"/>
@@ -3840,48 +4351,46 @@
       <c r="M40" s="48"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
+      <c r="P40" s="48">
+        <v>2</v>
+      </c>
       <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
+      <c r="R40" s="48">
+        <v>2</v>
+      </c>
       <c r="S40" s="48"/>
       <c r="T40" s="48"/>
-      <c r="U40" s="48">
-        <v>1</v>
-      </c>
+      <c r="U40" s="48"/>
       <c r="V40" s="48"/>
-      <c r="W40" s="48">
-        <v>1</v>
-      </c>
+      <c r="W40" s="48"/>
       <c r="X40" s="48"/>
       <c r="Y40" s="48"/>
-      <c r="Z40" s="48">
-        <v>1</v>
-      </c>
+      <c r="Z40" s="48"/>
       <c r="AA40" s="49"/>
       <c r="AB40" s="50"/>
     </row>
-    <row r="41" spans="1:28" s="51" customFormat="1">
+    <row r="41" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
       <c r="B41" s="43">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F41" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G41" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="46">
         <v>0</v>
@@ -3893,45 +4402,45 @@
       <c r="N41" s="48"/>
       <c r="O41" s="48"/>
       <c r="P41" s="48"/>
-      <c r="Q41" s="48">
-        <v>1</v>
-      </c>
+      <c r="Q41" s="48"/>
       <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
+      <c r="S41" s="48">
+        <v>2</v>
+      </c>
       <c r="T41" s="48"/>
       <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
+      <c r="V41" s="48">
+        <v>1</v>
+      </c>
       <c r="W41" s="48"/>
-      <c r="X41" s="48">
-        <v>1</v>
-      </c>
+      <c r="X41" s="48"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="49"/>
       <c r="AB41" s="50"/>
     </row>
-    <row r="42" spans="1:28" s="51" customFormat="1">
+    <row r="42" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="B42" s="43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F42" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G42" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" s="46">
         <v>0</v>
@@ -3950,40 +4459,38 @@
         <v>1</v>
       </c>
       <c r="U42" s="48"/>
-      <c r="V42" s="48">
+      <c r="V42" s="48"/>
+      <c r="W42" s="48">
         <v>1</v>
       </c>
-      <c r="W42" s="48"/>
       <c r="X42" s="48"/>
-      <c r="Y42" s="48">
-        <v>1</v>
-      </c>
+      <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="49"/>
       <c r="AB42" s="50"/>
     </row>
-    <row r="43" spans="1:28" s="51" customFormat="1">
+    <row r="43" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>41</v>
       </c>
       <c r="B43" s="43">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F43" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G43" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I43" s="46">
         <v>0</v>
@@ -3996,17 +4503,13 @@
       <c r="O43" s="48"/>
       <c r="P43" s="48"/>
       <c r="Q43" s="48"/>
-      <c r="R43" s="48">
+      <c r="R43" s="48"/>
+      <c r="S43" s="48">
         <v>1</v>
       </c>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48">
-        <v>1</v>
-      </c>
+      <c r="T43" s="48"/>
       <c r="U43" s="48"/>
-      <c r="V43" s="48">
-        <v>1</v>
-      </c>
+      <c r="V43" s="48"/>
       <c r="W43" s="48"/>
       <c r="X43" s="48">
         <v>1</v>
@@ -4016,28 +4519,28 @@
       <c r="AA43" s="49"/>
       <c r="AB43" s="50"/>
     </row>
-    <row r="44" spans="1:28" s="51" customFormat="1">
+    <row r="44" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42</v>
       </c>
       <c r="B44" s="43">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G44" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44" s="43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" s="46">
         <v>0</v>
@@ -4051,43 +4554,45 @@
       <c r="P44" s="48"/>
       <c r="Q44" s="48"/>
       <c r="R44" s="48"/>
-      <c r="S44" s="48">
-        <v>2</v>
-      </c>
+      <c r="S44" s="48"/>
       <c r="T44" s="48"/>
       <c r="U44" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
+      <c r="W44" s="48">
+        <v>1</v>
+      </c>
       <c r="X44" s="48"/>
       <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
+      <c r="Z44" s="48">
+        <v>1</v>
+      </c>
       <c r="AA44" s="49"/>
       <c r="AB44" s="50"/>
     </row>
-    <row r="45" spans="1:28" s="51" customFormat="1">
+    <row r="45" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43</v>
       </c>
       <c r="B45" s="43">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="F45" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G45" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="46">
         <v>0</v>
@@ -4099,45 +4604,45 @@
       <c r="N45" s="48"/>
       <c r="O45" s="48"/>
       <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
+      <c r="Q45" s="48">
+        <v>1</v>
+      </c>
       <c r="R45" s="48"/>
       <c r="S45" s="48"/>
       <c r="T45" s="48"/>
       <c r="U45" s="48"/>
-      <c r="V45" s="48">
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48">
         <v>1</v>
       </c>
-      <c r="W45" s="48">
-        <v>2</v>
-      </c>
-      <c r="X45" s="48"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="49"/>
       <c r="AB45" s="50"/>
     </row>
-    <row r="46" spans="1:28" s="51" customFormat="1">
+    <row r="46" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44</v>
       </c>
       <c r="B46" s="43">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F46" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G46" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" s="46">
         <v>0</v>
@@ -4152,42 +4657,44 @@
       <c r="Q46" s="48"/>
       <c r="R46" s="48"/>
       <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
+      <c r="T46" s="48">
+        <v>1</v>
+      </c>
       <c r="U46" s="48"/>
       <c r="V46" s="48">
         <v>1</v>
       </c>
       <c r="W46" s="48"/>
-      <c r="X46" s="48">
+      <c r="X46" s="48"/>
+      <c r="Y46" s="48">
         <v>1</v>
       </c>
-      <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
       <c r="AA46" s="49"/>
       <c r="AB46" s="50"/>
     </row>
-    <row r="47" spans="1:28" s="51" customFormat="1">
+    <row r="47" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" s="43">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="F47" s="44" t="s">
         <v>76</v>
       </c>
       <c r="G47" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47" s="43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I47" s="46">
         <v>0</v>
@@ -4200,42 +4707,48 @@
       <c r="O47" s="48"/>
       <c r="P47" s="48"/>
       <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
+      <c r="R47" s="48">
+        <v>1</v>
+      </c>
       <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
+      <c r="T47" s="48">
+        <v>1</v>
+      </c>
       <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48">
-        <v>2</v>
-      </c>
-      <c r="X47" s="48"/>
+      <c r="V47" s="48">
+        <v>1</v>
+      </c>
+      <c r="W47" s="48"/>
+      <c r="X47" s="48">
+        <v>1</v>
+      </c>
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
       <c r="AA47" s="49"/>
       <c r="AB47" s="50"/>
     </row>
-    <row r="48" spans="1:28" s="51" customFormat="1">
+    <row r="48" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>46</v>
       </c>
       <c r="B48" s="43">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="43" t="s">
         <v>74</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G48" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H48" s="43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" s="46">
         <v>0</v>
@@ -4249,34 +4762,34 @@
       <c r="P48" s="48"/>
       <c r="Q48" s="48"/>
       <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
+      <c r="S48" s="48">
+        <v>2</v>
+      </c>
       <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
+      <c r="U48" s="48">
+        <v>2</v>
+      </c>
       <c r="V48" s="48"/>
-      <c r="W48" s="48">
-        <v>2</v>
-      </c>
-      <c r="X48" s="48">
-        <v>1</v>
-      </c>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
       <c r="Y48" s="48"/>
       <c r="Z48" s="48"/>
       <c r="AA48" s="49"/>
       <c r="AB48" s="50"/>
     </row>
-    <row r="49" spans="1:28" s="51" customFormat="1">
+    <row r="49" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
       <c r="B49" s="43">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C49" s="43"/>
       <c r="D49" s="43" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F49" s="44" t="s">
         <v>76</v>
@@ -4302,41 +4815,43 @@
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="48"/>
-      <c r="X49" s="48">
-        <v>3</v>
-      </c>
+      <c r="V49" s="48">
+        <v>1</v>
+      </c>
+      <c r="W49" s="48">
+        <v>2</v>
+      </c>
+      <c r="X49" s="48"/>
       <c r="Y49" s="48"/>
       <c r="Z49" s="48"/>
       <c r="AA49" s="49"/>
       <c r="AB49" s="50"/>
     </row>
-    <row r="50" spans="1:28" s="51" customFormat="1" ht="63.75">
+    <row r="50" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
-        <v>36</v>
-      </c>
-      <c r="B50" s="43"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="43">
+        <v>23</v>
+      </c>
       <c r="C50" s="43"/>
       <c r="D50" s="43" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G50" s="43">
-        <v>8</v>
-      </c>
-      <c r="H50" s="45">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="H50" s="43">
+        <v>2</v>
       </c>
       <c r="I50" s="46">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" s="47"/>
       <c r="K50" s="48"/>
@@ -4350,348 +4865,430 @@
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="48">
+      <c r="V50" s="48">
         <v>1</v>
       </c>
-      <c r="X50" s="48"/>
+      <c r="W50" s="48"/>
+      <c r="X50" s="48">
+        <v>1</v>
+      </c>
       <c r="Y50" s="48"/>
-      <c r="Z50" s="48">
-        <v>2</v>
-      </c>
-      <c r="AA50" s="49">
+      <c r="Z50" s="48"/>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="50"/>
+    </row>
+    <row r="51" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>49</v>
+      </c>
+      <c r="B51" s="43">
+        <v>24</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="43">
+        <v>2</v>
+      </c>
+      <c r="H51" s="43">
+        <v>2</v>
+      </c>
+      <c r="I51" s="46">
+        <v>0</v>
+      </c>
+      <c r="J51" s="47"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48">
+        <v>2</v>
+      </c>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="50"/>
+    </row>
+    <row r="52" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" s="43">
+        <v>25</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="43">
         <v>3</v>
       </c>
-      <c r="AB50" s="50"/>
-    </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="12">
-        <v>37</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="13">
-        <v>2</v>
-      </c>
-      <c r="H51" s="15">
-        <f t="shared" ref="H51:H64" si="4">IF((G51&lt;SUM(J51:AA51)),SUM(J51:AA51),G51)</f>
-        <v>2</v>
-      </c>
-      <c r="I51" s="16">
-        <f t="shared" ref="I51:I64" si="5">IF((H51&gt;G51),($H51-(SUM($J51:$AA51))),($G51-(SUM($J51:$AA51))))</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="20"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="22">
-        <v>2</v>
-      </c>
-      <c r="AB51" s="41"/>
-    </row>
-    <row r="52" spans="1:28" hidden="1">
-      <c r="A52" s="12">
-        <v>18</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="15">
+      <c r="H52" s="43">
+        <v>3</v>
+      </c>
+      <c r="I52" s="46">
+        <v>0</v>
+      </c>
+      <c r="J52" s="47"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="48"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="48">
+        <v>2</v>
+      </c>
+      <c r="X52" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="48"/>
+      <c r="Z52" s="48"/>
+      <c r="AA52" s="49"/>
+      <c r="AB52" s="50"/>
+    </row>
+    <row r="53" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>51</v>
+      </c>
+      <c r="B53" s="43">
+        <v>26</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="43">
+        <v>3</v>
+      </c>
+      <c r="H53" s="43">
+        <v>3</v>
+      </c>
+      <c r="I53" s="46">
+        <v>0</v>
+      </c>
+      <c r="J53" s="47"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="48"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="48"/>
+      <c r="X53" s="48">
+        <v>3</v>
+      </c>
+      <c r="Y53" s="48"/>
+      <c r="Z53" s="48"/>
+      <c r="AA53" s="49"/>
+      <c r="AB53" s="50"/>
+    </row>
+    <row r="54" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>52</v>
+      </c>
+      <c r="B54" s="43">
+        <v>27</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="43">
+        <v>3</v>
+      </c>
+      <c r="H54" s="43">
+        <v>3</v>
+      </c>
+      <c r="I54" s="46">
+        <v>0</v>
+      </c>
+      <c r="J54" s="47"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="49"/>
+      <c r="AB54" s="50"/>
+    </row>
+    <row r="55" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>52</v>
+      </c>
+      <c r="B55" s="43">
+        <v>28</v>
+      </c>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="43">
+        <v>3</v>
+      </c>
+      <c r="H55" s="43">
+        <v>3</v>
+      </c>
+      <c r="I55" s="46">
+        <v>0</v>
+      </c>
+      <c r="J55" s="47"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="48"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="48"/>
+      <c r="X55" s="48">
+        <v>3</v>
+      </c>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="48"/>
+      <c r="AA55" s="49"/>
+      <c r="AB55" s="50"/>
+    </row>
+    <row r="56" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>52</v>
+      </c>
+      <c r="B56" s="43">
+        <v>29</v>
+      </c>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="43">
+        <v>3</v>
+      </c>
+      <c r="H56" s="43">
+        <v>3</v>
+      </c>
+      <c r="I56" s="46">
+        <v>0</v>
+      </c>
+      <c r="J56" s="47"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="48"/>
+      <c r="V56" s="48">
+        <v>3</v>
+      </c>
+      <c r="W56" s="48"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="48"/>
+      <c r="AA56" s="49"/>
+      <c r="AB56" s="50"/>
+    </row>
+    <row r="57" spans="1:28" s="51" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>52</v>
+      </c>
+      <c r="B57" s="43">
+        <v>30</v>
+      </c>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="43">
+        <v>3</v>
+      </c>
+      <c r="H57" s="43">
+        <v>3</v>
+      </c>
+      <c r="I57" s="46">
+        <v>0</v>
+      </c>
+      <c r="J57" s="47"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="48"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="48"/>
+      <c r="X57" s="48">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="48"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="50"/>
+    </row>
+    <row r="58" spans="1:28" s="51" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>53</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="43">
+        <v>8</v>
+      </c>
+      <c r="H58" s="45">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="16">
+        <v>8</v>
+      </c>
+      <c r="I58" s="46">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="20"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="41"/>
-    </row>
-    <row r="53" spans="1:28" hidden="1">
-      <c r="A53" s="12">
-        <v>19</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="41"/>
-    </row>
-    <row r="54" spans="1:28" hidden="1">
-      <c r="A54" s="12">
-        <v>20</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="41"/>
-    </row>
-    <row r="55" spans="1:28" hidden="1">
-      <c r="A55" s="12">
-        <v>21</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="20"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="41"/>
-    </row>
-    <row r="56" spans="1:28" hidden="1">
-      <c r="A56" s="12">
-        <v>22</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="41"/>
-    </row>
-    <row r="57" spans="1:28" hidden="1">
-      <c r="A57" s="12">
-        <v>23</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="20"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="41"/>
-    </row>
-    <row r="58" spans="1:28" hidden="1">
-      <c r="A58" s="12">
-        <v>24</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="20"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="41"/>
-    </row>
-    <row r="59" spans="1:28" hidden="1">
+        <v>2</v>
+      </c>
+      <c r="J58" s="47"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="48"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="48"/>
+      <c r="W58" s="48">
+        <v>1</v>
+      </c>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="48"/>
+      <c r="Z58" s="48">
+        <v>2</v>
+      </c>
+      <c r="AA58" s="49">
+        <v>3</v>
+      </c>
+      <c r="AB58" s="50"/>
+    </row>
+    <row r="59" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
+      <c r="D59" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="F59" s="14"/>
-      <c r="G59" s="13"/>
+      <c r="G59" s="13">
+        <v>2</v>
+      </c>
       <c r="H59" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="H59:H72" si="6">IF((G59&lt;SUM(J59:AA59)),SUM(J59:AA59),G59)</f>
+        <v>2</v>
       </c>
       <c r="I59" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I59:I72" si="7">IF((H59&gt;G59),($H59-(SUM($J59:$AA59))),($G59-(SUM($J59:$AA59))))</f>
         <v>0</v>
       </c>
       <c r="J59" s="20"/>
@@ -4711,12 +5308,14 @@
       <c r="X59" s="21"/>
       <c r="Y59" s="21"/>
       <c r="Z59" s="21"/>
-      <c r="AA59" s="22"/>
+      <c r="AA59" s="22">
+        <v>2</v>
+      </c>
       <c r="AB59" s="41"/>
     </row>
-    <row r="60" spans="1:28" hidden="1">
+    <row r="60" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -4725,11 +5324,11 @@
       <c r="F60" s="14"/>
       <c r="G60" s="13"/>
       <c r="H60" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I60" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J60" s="20"/>
@@ -4752,9 +5351,9 @@
       <c r="AA60" s="22"/>
       <c r="AB60" s="41"/>
     </row>
-    <row r="61" spans="1:28" hidden="1">
+    <row r="61" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -4763,11 +5362,11 @@
       <c r="F61" s="14"/>
       <c r="G61" s="13"/>
       <c r="H61" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I61" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J61" s="20"/>
@@ -4790,9 +5389,9 @@
       <c r="AA61" s="22"/>
       <c r="AB61" s="41"/>
     </row>
-    <row r="62" spans="1:28" hidden="1">
+    <row r="62" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -4801,11 +5400,11 @@
       <c r="F62" s="14"/>
       <c r="G62" s="13"/>
       <c r="H62" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I62" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J62" s="20"/>
@@ -4828,9 +5427,9 @@
       <c r="AA62" s="22"/>
       <c r="AB62" s="41"/>
     </row>
-    <row r="63" spans="1:28" hidden="1">
+    <row r="63" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -4839,11 +5438,11 @@
       <c r="F63" s="14"/>
       <c r="G63" s="13"/>
       <c r="H63" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I63" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J63" s="20"/>
@@ -4866,9 +5465,9 @@
       <c r="AA63" s="22"/>
       <c r="AB63" s="41"/>
     </row>
-    <row r="64" spans="1:28" hidden="1">
+    <row r="64" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -4877,11 +5476,11 @@
       <c r="F64" s="14"/>
       <c r="G64" s="13"/>
       <c r="H64" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I64" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J64" s="20"/>
@@ -4904,712 +5503,1144 @@
       <c r="AA64" s="22"/>
       <c r="AB64" s="41"/>
     </row>
-    <row r="65" spans="1:27">
-      <c r="A65" s="12"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24" t="s">
+    <row r="65" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>23</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="41"/>
+    </row>
+    <row r="66" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>24</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="20"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="41"/>
+    </row>
+    <row r="67" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>25</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="20"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="41"/>
+    </row>
+    <row r="68" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>26</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="20"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="41"/>
+    </row>
+    <row r="69" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>27</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="20"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="41"/>
+    </row>
+    <row r="70" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>28</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="20"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="41"/>
+    </row>
+    <row r="71" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>29</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="20"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="41"/>
+    </row>
+    <row r="72" spans="1:28" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>30</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="20"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="21"/>
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="21"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="41"/>
+    </row>
+    <row r="73" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26">
-        <f>SUM(G3:G64)</f>
-        <v>193</v>
-      </c>
-      <c r="H65" s="27">
-        <f>SUM(H3:H64)</f>
-        <v>198</v>
-      </c>
-      <c r="I65" s="27">
-        <f>SUM(I3:I64)</f>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26">
+        <f>SUM(G3:G72)</f>
+        <v>212</v>
+      </c>
+      <c r="H73" s="27">
+        <f>SUM(H3:H72)</f>
+        <v>217</v>
+      </c>
+      <c r="I73" s="27">
+        <f>SUM(I3:I72)</f>
+        <v>2</v>
+      </c>
+      <c r="J73" s="28">
+        <f t="shared" ref="J73:AA73" si="8">SUM(J3:J59)</f>
         <v>3</v>
       </c>
-      <c r="J65" s="28">
-        <f t="shared" ref="J65:AA65" si="6">SUM(J3:J51)</f>
-        <v>3</v>
-      </c>
-      <c r="K65" s="28">
-        <f t="shared" si="6"/>
+      <c r="K73" s="28">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L73" s="28">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="L65" s="28">
-        <f t="shared" si="6"/>
+      <c r="M73" s="28">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="M65" s="28">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="N65" s="28">
-        <f t="shared" si="6"/>
+      <c r="N73" s="28">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O65" s="28">
-        <f t="shared" si="6"/>
+      <c r="O73" s="28">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="P65" s="28">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="Q65" s="28">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="R65" s="28">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="S65" s="28">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="T65" s="28">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="U65" s="28">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="V65" s="28">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="W65" s="28">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="X65" s="28">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="Y65" s="28">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="Z65" s="28">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="AA65" s="28">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" ht="12" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="32">
-        <f>G65-SUM(J66:AA66)</f>
-        <v>114</v>
-      </c>
-      <c r="H66" s="33"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="7">
-        <v>5</v>
-      </c>
-      <c r="K66" s="7">
-        <v>4</v>
-      </c>
-      <c r="L66" s="7">
-        <v>5</v>
-      </c>
-      <c r="M66" s="7">
-        <v>4</v>
-      </c>
-      <c r="N66" s="7">
-        <v>5</v>
-      </c>
-      <c r="O66" s="7">
-        <v>4</v>
-      </c>
-      <c r="P66" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="7">
-        <v>4</v>
-      </c>
-      <c r="R66" s="7">
-        <v>5</v>
-      </c>
-      <c r="S66" s="7">
-        <v>4</v>
-      </c>
-      <c r="T66" s="7">
-        <v>4</v>
-      </c>
-      <c r="U66" s="7">
-        <v>5</v>
-      </c>
-      <c r="V66" s="7">
-        <v>4</v>
-      </c>
-      <c r="W66" s="7">
-        <v>4</v>
-      </c>
-      <c r="X66" s="7">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="7">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="7">
-        <v>4</v>
-      </c>
-      <c r="AA66" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="12" customHeight="1">
-      <c r="E67" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" s="37">
-        <f>G65</f>
-        <v>193</v>
-      </c>
-      <c r="J67" s="39">
-        <f t="shared" ref="J67:AA67" si="7">I67-J66</f>
-        <v>188</v>
-      </c>
-      <c r="K67" s="39">
-        <f t="shared" si="7"/>
-        <v>184</v>
-      </c>
-      <c r="L67" s="39">
-        <f t="shared" si="7"/>
-        <v>179</v>
-      </c>
-      <c r="M67" s="39">
-        <f t="shared" si="7"/>
-        <v>175</v>
-      </c>
-      <c r="N67" s="39">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="O67" s="39">
-        <f t="shared" si="7"/>
-        <v>166</v>
-      </c>
-      <c r="P67" s="39">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
-      <c r="Q67" s="39">
-        <f t="shared" si="7"/>
-        <v>157</v>
-      </c>
-      <c r="R67" s="39">
-        <f t="shared" si="7"/>
-        <v>152</v>
-      </c>
-      <c r="S67" s="39">
-        <f t="shared" si="7"/>
-        <v>148</v>
-      </c>
-      <c r="T67" s="39">
-        <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-      <c r="U67" s="39">
-        <f t="shared" si="7"/>
-        <v>139</v>
-      </c>
-      <c r="V67" s="39">
-        <f t="shared" si="7"/>
-        <v>135</v>
-      </c>
-      <c r="W67" s="39">
-        <f t="shared" si="7"/>
-        <v>131</v>
-      </c>
-      <c r="X67" s="39">
-        <f t="shared" si="7"/>
-        <v>127</v>
-      </c>
-      <c r="Y67" s="39">
-        <f t="shared" si="7"/>
-        <v>122</v>
-      </c>
-      <c r="Z67" s="39">
-        <f>Y67-Z66</f>
-        <v>118</v>
-      </c>
-      <c r="AA67" s="39">
-        <f t="shared" si="7"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" ht="12" customHeight="1">
-      <c r="E68" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="37">
-        <f>H65</f>
-        <v>198</v>
-      </c>
-      <c r="J68" s="37">
-        <f>$H$65-SUM(J$3:J$64)</f>
-        <v>195</v>
-      </c>
-      <c r="K68" s="37">
-        <f t="shared" ref="K68:AA68" si="8">J68-SUM(K3:K64)</f>
-        <v>191</v>
-      </c>
-      <c r="L68" s="37">
-        <f t="shared" si="8"/>
-        <v>187</v>
-      </c>
-      <c r="M68" s="37">
-        <f t="shared" si="8"/>
-        <v>183</v>
-      </c>
-      <c r="N68" s="37">
-        <f t="shared" si="8"/>
-        <v>182</v>
-      </c>
-      <c r="O68" s="37">
-        <f t="shared" si="8"/>
-        <v>172</v>
-      </c>
-      <c r="P68" s="37">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="Q68" s="37">
-        <f t="shared" si="8"/>
-        <v>150</v>
-      </c>
-      <c r="R68" s="37">
-        <f t="shared" si="8"/>
-        <v>139</v>
-      </c>
-      <c r="S68" s="37">
-        <f t="shared" si="8"/>
-        <v>122</v>
-      </c>
-      <c r="T68" s="37">
-        <f t="shared" si="8"/>
-        <v>105</v>
-      </c>
-      <c r="U68" s="37">
-        <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="V68" s="37">
-        <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-      <c r="W68" s="37">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="X68" s="37">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="Y68" s="37">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="Z68" s="37">
+      <c r="P73" s="28">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="AA68" s="37">
+      <c r="Q73" s="28">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" ht="12" customHeight="1">
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="35"/>
-    </row>
-    <row r="70" spans="1:27">
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="35"/>
-    </row>
-    <row r="71" spans="1:27">
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:27">
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:27">
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:27">
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:27">
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:27">
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:27">
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:27">
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:27">
+        <v>10</v>
+      </c>
+      <c r="R73" s="28">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="S73" s="28">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="T73" s="28">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="U73" s="28">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="V73" s="28">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="W73" s="28">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="X73" s="28">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="Y73" s="28">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="Z73" s="28">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AA73" s="28">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="31"/>
+      <c r="G74" s="32">
+        <f>G73-SUM(J74:AA74)</f>
+        <v>133</v>
+      </c>
+      <c r="H74" s="33"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="7">
+        <v>5</v>
+      </c>
+      <c r="K74" s="7">
+        <v>4</v>
+      </c>
+      <c r="L74" s="7">
+        <v>5</v>
+      </c>
+      <c r="M74" s="7">
+        <v>4</v>
+      </c>
+      <c r="N74" s="7">
+        <v>5</v>
+      </c>
+      <c r="O74" s="7">
+        <v>4</v>
+      </c>
+      <c r="P74" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>4</v>
+      </c>
+      <c r="R74" s="7">
+        <v>5</v>
+      </c>
+      <c r="S74" s="7">
+        <v>4</v>
+      </c>
+      <c r="T74" s="7">
+        <v>4</v>
+      </c>
+      <c r="U74" s="7">
+        <v>5</v>
+      </c>
+      <c r="V74" s="7">
+        <v>4</v>
+      </c>
+      <c r="W74" s="7">
+        <v>4</v>
+      </c>
+      <c r="X74" s="7">
+        <v>4</v>
+      </c>
+      <c r="Y74" s="7">
+        <v>5</v>
+      </c>
+      <c r="Z74" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA74" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="37">
+        <f>G73</f>
+        <v>212</v>
+      </c>
+      <c r="J75" s="39">
+        <f t="shared" ref="J75:AA75" si="9">I75-J74</f>
+        <v>207</v>
+      </c>
+      <c r="K75" s="39">
+        <f t="shared" si="9"/>
+        <v>203</v>
+      </c>
+      <c r="L75" s="39">
+        <f t="shared" si="9"/>
+        <v>198</v>
+      </c>
+      <c r="M75" s="39">
+        <f t="shared" si="9"/>
+        <v>194</v>
+      </c>
+      <c r="N75" s="39">
+        <f t="shared" si="9"/>
+        <v>189</v>
+      </c>
+      <c r="O75" s="39">
+        <f t="shared" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="P75" s="39">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="Q75" s="39">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="R75" s="39">
+        <f t="shared" si="9"/>
+        <v>171</v>
+      </c>
+      <c r="S75" s="39">
+        <f t="shared" si="9"/>
+        <v>167</v>
+      </c>
+      <c r="T75" s="39">
+        <f t="shared" si="9"/>
+        <v>163</v>
+      </c>
+      <c r="U75" s="39">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="V75" s="39">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="W75" s="39">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="X75" s="39">
+        <f t="shared" si="9"/>
+        <v>146</v>
+      </c>
+      <c r="Y75" s="39">
+        <f t="shared" si="9"/>
+        <v>141</v>
+      </c>
+      <c r="Z75" s="39">
+        <f>Y75-Z74</f>
+        <v>137</v>
+      </c>
+      <c r="AA75" s="39">
+        <f t="shared" si="9"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="37">
+        <f>H73</f>
+        <v>217</v>
+      </c>
+      <c r="J76" s="37">
+        <f>$H$73-SUM(J$3:J$72)</f>
+        <v>214</v>
+      </c>
+      <c r="K76" s="37">
+        <f t="shared" ref="K76:AA76" si="10">J76-SUM(K3:K72)</f>
+        <v>209</v>
+      </c>
+      <c r="L76" s="37">
+        <f t="shared" si="10"/>
+        <v>205</v>
+      </c>
+      <c r="M76" s="37">
+        <f t="shared" si="10"/>
+        <v>201</v>
+      </c>
+      <c r="N76" s="37">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="O76" s="37">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="P76" s="37">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+      <c r="Q76" s="37">
+        <f t="shared" si="10"/>
+        <v>168</v>
+      </c>
+      <c r="R76" s="37">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="S76" s="37">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="T76" s="37">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="U76" s="37">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+      <c r="V76" s="37">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="W76" s="37">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="X76" s="37">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="Y76" s="37">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="Z76" s="37">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="AA76" s="37">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="35"/>
+      <c r="U77" s="35"/>
+      <c r="V77" s="35"/>
+      <c r="W77" s="35"/>
+      <c r="X77" s="35"/>
+      <c r="Y77" s="35"/>
+      <c r="Z77" s="35"/>
+      <c r="AA77" s="35"/>
+    </row>
+    <row r="78" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="35"/>
+      <c r="U78" s="35"/>
+      <c r="V78" s="35"/>
+      <c r="W78" s="35"/>
+      <c r="X78" s="35"/>
+      <c r="Y78" s="35"/>
+      <c r="Z78" s="35"/>
+      <c r="AA78" s="35"/>
+    </row>
+    <row r="79" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6">
+    <row r="81" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6">
+    <row r="82" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6">
+    <row r="83" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6">
+    <row r="84" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6">
+    <row r="85" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6">
+    <row r="86" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6">
+    <row r="87" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6">
+    <row r="88" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6">
+    <row r="89" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6">
+    <row r="90" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6">
+    <row r="91" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6">
+    <row r="92" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6">
+    <row r="93" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6">
+    <row r="94" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6">
+    <row r="95" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6">
+    <row r="96" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6">
+    <row r="97" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6">
+    <row r="98" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6">
+    <row r="99" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6">
+    <row r="100" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="5:6">
+    <row r="101" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="5:6">
+    <row r="102" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="5:6">
+    <row r="103" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="5:6">
+    <row r="104" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="5:6">
+    <row r="105" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="5:6">
+    <row r="106" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="5:6">
+    <row r="107" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="5:6">
+    <row r="108" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="5:6">
+    <row r="109" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="5:6">
+    <row r="110" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="5:6">
+    <row r="111" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="5:6">
+    <row r="112" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:6">
+    <row r="113" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:6">
+    <row r="114" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:6">
+    <row r="115" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="5:6">
+    <row r="116" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:6">
+    <row r="117" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:6">
+    <row r="118" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:6">
+    <row r="119" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="5:6">
+    <row r="120" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="5:6">
+    <row r="121" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="5:6">
+    <row r="122" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="5:6">
+    <row r="123" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="5:6">
+    <row r="124" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="5:6">
+    <row r="125" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="5:6">
+    <row r="126" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="5:6">
+    <row r="127" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="5:6">
+    <row r="128" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="5:6">
+    <row r="129" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="5:6">
+    <row r="130" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="5:6">
+    <row r="131" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
+    <row r="132" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="5:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="E77:I77"/>
+    <mergeCell ref="E78:I78"/>
   </mergeCells>
-  <conditionalFormatting sqref="E67:E68 H67:AA68">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="E75:E76 H75:AA76">
+    <cfRule type="cellIs" dxfId="56" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="17" priority="12" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="G74">
+    <cfRule type="cellIs" dxfId="55" priority="40" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I15 I51:I64">
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="I3:I15 I59:I72">
+    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:F66 I66">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E74:F74 I74">
+    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:AA15 J51:AA64">
-    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="J3:AA15 J59:AA72">
+    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:G68">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F75:G76">
+    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I50">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="I16:I28 I33:I53 I58">
+    <cfRule type="cellIs" dxfId="45" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:AA50">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="J16:AA28 J33:AA53 J58:AA58">
+    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I28">
+    <cfRule type="cellIs" dxfId="43" priority="32" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:AA28">
+    <cfRule type="cellIs" dxfId="42" priority="31" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I53">
+    <cfRule type="cellIs" dxfId="41" priority="30" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:AA53">
+    <cfRule type="cellIs" dxfId="40" priority="29" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29 I32">
+    <cfRule type="cellIs" dxfId="39" priority="-1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="-1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="26" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:AA29 J32:AA32">
+    <cfRule type="cellIs" dxfId="36" priority="25" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="35" priority="23" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:AA54">
+    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:AA54">
+    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:AA31">
+    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="cellIs" dxfId="27" priority="-1" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:AA30">
+    <cfRule type="cellIs" dxfId="24" priority="13" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="cellIs" dxfId="23" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:AA55">
+    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55">
+    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:AA55">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56:AA56">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56:AA56">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57:AA57">
     <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:AA28">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I49">
+  <conditionalFormatting sqref="I57">
     <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J44:AA49">
+  <conditionalFormatting sqref="J57:AA57">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/Documents/Agile Project Management -Backlog.xlsx
+++ b/Documents/Agile Project Management -Backlog.xlsx
@@ -1012,24 +1012,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF6600"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFADCB3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,19 +1061,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF6600"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1085,23 +1095,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFCC00"/>
@@ -1119,104 +1112,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1254,16 +1152,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1352,26 +1240,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1508,151 +1376,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF008000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF6600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFADCB3"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1724,61 +1447,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>212</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>207</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>198</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>194</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>189</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>185</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>180</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>176</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>167</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>163</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>158</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>154</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>146</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>141</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,49 +1513,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>217</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>214</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>209</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>178</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>140</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>103</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>76</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>34</c:v>
@@ -1858,11 +1581,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1275198256"/>
-        <c:axId val="-1275197168"/>
+        <c:axId val="-1890594768"/>
+        <c:axId val="-1890600208"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="-1275198256"/>
+        <c:axId val="-1890594768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1614,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1275197168"/>
+        <c:crossAx val="-1890600208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1899,7 +1622,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1275197168"/>
+        <c:axId val="-1890600208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1275198256"/>
+        <c:crossAx val="-1890594768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2286,10 +2009,10 @@
   <dimension ref="A1:AC139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V57" sqref="V57"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3805,7 +3528,7 @@
       <c r="G29" s="43">
         <v>7</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="58">
         <f t="shared" ref="H29" si="2">IF((G29&lt;SUM(J29:AA29)),SUM(J29:AA29),G29)</f>
         <v>7</v>
       </c>
@@ -3856,9 +3579,15 @@
       <c r="F30" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="16"/>
+      <c r="G30" s="43">
+        <v>6</v>
+      </c>
+      <c r="H30" s="58">
+        <v>6</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
       <c r="J30" s="47"/>
       <c r="K30" s="48"/>
       <c r="L30" s="48"/>
@@ -3871,9 +3600,13 @@
       <c r="S30" s="48"/>
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
+      <c r="V30" s="48">
+        <v>4</v>
+      </c>
       <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
+      <c r="X30" s="48">
+        <v>2</v>
+      </c>
       <c r="Y30" s="48"/>
       <c r="Z30" s="48"/>
       <c r="AA30" s="49"/>
@@ -3896,9 +3629,15 @@
       <c r="F31" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="16"/>
+      <c r="G31" s="43">
+        <v>5</v>
+      </c>
+      <c r="H31" s="58">
+        <v>5</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
       <c r="J31" s="47"/>
       <c r="K31" s="48"/>
       <c r="L31" s="48"/>
@@ -3910,9 +3649,13 @@
       <c r="R31" s="48"/>
       <c r="S31" s="48"/>
       <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
+      <c r="U31" s="48">
+        <v>3</v>
+      </c>
       <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
+      <c r="W31" s="48">
+        <v>2</v>
+      </c>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
       <c r="Z31" s="48"/>
@@ -3936,9 +3679,15 @@
       <c r="F32" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="16"/>
+      <c r="G32" s="43">
+        <v>8</v>
+      </c>
+      <c r="H32" s="58">
+        <v>8</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
       <c r="J32" s="47"/>
       <c r="K32" s="48"/>
       <c r="L32" s="48"/>
@@ -3951,9 +3700,13 @@
       <c r="S32" s="48"/>
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
+      <c r="V32" s="48">
+        <v>4</v>
+      </c>
       <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
+      <c r="X32" s="48">
+        <v>4</v>
+      </c>
       <c r="Y32" s="48"/>
       <c r="Z32" s="48"/>
       <c r="AA32" s="49"/>
@@ -5818,11 +5571,11 @@
       <c r="F73" s="25"/>
       <c r="G73" s="26">
         <f>SUM(G3:G72)</f>
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H73" s="27">
         <f>SUM(H3:H72)</f>
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I73" s="27">
         <f>SUM(I3:I72)</f>
@@ -5874,19 +5627,19 @@
       </c>
       <c r="U73" s="28">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V73" s="28">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W73" s="28">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X73" s="28">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Y73" s="28">
         <f t="shared" si="8"/>
@@ -5912,7 +5665,7 @@
       <c r="F74" s="31"/>
       <c r="G74" s="32">
         <f>G73-SUM(J74:AA74)</f>
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H74" s="33"/>
       <c r="I74" s="34"/>
@@ -5982,79 +5735,79 @@
       </c>
       <c r="I75" s="37">
         <f>G73</f>
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="J75" s="39">
         <f t="shared" ref="J75:AA75" si="9">I75-J74</f>
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K75" s="39">
         <f t="shared" si="9"/>
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L75" s="39">
         <f t="shared" si="9"/>
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="M75" s="39">
         <f t="shared" si="9"/>
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="N75" s="39">
         <f t="shared" si="9"/>
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="O75" s="39">
         <f t="shared" si="9"/>
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="P75" s="39">
         <f t="shared" si="9"/>
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q75" s="39">
         <f t="shared" si="9"/>
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="R75" s="39">
         <f t="shared" si="9"/>
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="S75" s="39">
         <f t="shared" si="9"/>
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="T75" s="39">
         <f t="shared" si="9"/>
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="U75" s="39">
         <f t="shared" si="9"/>
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="V75" s="39">
         <f t="shared" si="9"/>
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="W75" s="39">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="X75" s="39">
         <f t="shared" si="9"/>
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="Y75" s="39">
         <f t="shared" si="9"/>
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="Z75" s="39">
         <f>Y75-Z74</f>
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="AA75" s="39">
         <f t="shared" si="9"/>
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6068,63 +5821,63 @@
       </c>
       <c r="I76" s="37">
         <f>H73</f>
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="J76" s="37">
         <f>$H$73-SUM(J$3:J$72)</f>
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K76" s="37">
         <f t="shared" ref="K76:AA76" si="10">J76-SUM(K3:K72)</f>
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L76" s="37">
         <f t="shared" si="10"/>
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M76" s="37">
         <f t="shared" si="10"/>
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="N76" s="37">
         <f t="shared" si="10"/>
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O76" s="37">
         <f t="shared" si="10"/>
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="P76" s="37">
         <f t="shared" si="10"/>
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q76" s="37">
         <f t="shared" si="10"/>
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="R76" s="37">
         <f t="shared" si="10"/>
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="S76" s="37">
         <f t="shared" si="10"/>
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="T76" s="37">
         <f t="shared" si="10"/>
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="U76" s="37">
         <f t="shared" si="10"/>
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="V76" s="37">
         <f t="shared" si="10"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="W76" s="37">
         <f t="shared" si="10"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="X76" s="37">
         <f t="shared" si="10"/>
@@ -6144,11 +5897,11 @@
       </c>
     </row>
     <row r="77" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
       <c r="K77" s="35"/>
       <c r="L77" s="35"/>
       <c r="M77" s="35"/>
@@ -6168,11 +5921,11 @@
       <c r="AA77" s="35"/>
     </row>
     <row r="78" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
@@ -6441,207 +6194,198 @@
     <mergeCell ref="E78:I78"/>
   </mergeCells>
   <conditionalFormatting sqref="E75:E76 H75:AA76">
-    <cfRule type="cellIs" dxfId="56" priority="39" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="cellIs" dxfId="55" priority="40" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I15 I59:I72">
-    <cfRule type="cellIs" dxfId="54" priority="41" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:F74 I74">
-    <cfRule type="cellIs" dxfId="51" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="42" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="42" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:AA15 J59:AA72">
-    <cfRule type="cellIs" dxfId="49" priority="43" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="43" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="48" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="44" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G76">
-    <cfRule type="cellIs" dxfId="46" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="37" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I28 I33:I53 I58">
-    <cfRule type="cellIs" dxfId="45" priority="33" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:AA28 J33:AA53 J58:AA58">
-    <cfRule type="cellIs" dxfId="44" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:I28">
-    <cfRule type="cellIs" dxfId="43" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:AA28">
-    <cfRule type="cellIs" dxfId="42" priority="31" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:I53">
-    <cfRule type="cellIs" dxfId="41" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:AA53">
-    <cfRule type="cellIs" dxfId="40" priority="29" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29 I32">
-    <cfRule type="cellIs" dxfId="39" priority="-1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="-1" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="26" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:AA29 J32:AA32">
-    <cfRule type="cellIs" dxfId="36" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="35" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:AA54">
-    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:AA54">
-    <cfRule type="cellIs" dxfId="32" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:AA31">
-    <cfRule type="cellIs" dxfId="28" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="27" priority="-1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:AA30">
-    <cfRule type="cellIs" dxfId="24" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="23" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:AA55">
-    <cfRule type="cellIs" dxfId="21" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55:AA55">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:AA56">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:AA56">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:AA57">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:AA57">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
